--- a/R2/2021-0421 檢查 Excel Block/RCAD-鋼筋型文對照表-圖塊SigoAva-Mu-MEI-AVA-20210412-鋼筋計料.xlsx
+++ b/R2/2021-0421 檢查 Excel Block/RCAD-鋼筋型文對照表-圖塊SigoAva-Mu-MEI-AVA-20210412-鋼筋計料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\autohotkey\R2\2021-0421 檢查 Excel Block\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52861317-0378-4D16-9DA3-D97832066E50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA74A0-78A1-442D-844B-22384D3085EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3225" yWindow="3225" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
         <xdr:cNvPr id="2" name="直線接點 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7850D0-0D02-46D0-A854-31FB2616874A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E17834D-3A48-4C89-AE23-D459C22A14E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
         <xdr:cNvPr id="3" name="直線接點 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B033C20E-1200-4140-8FD4-F36ADB96BD8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D07A9B-BEBB-4015-B09E-9182DD8D4AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="4" name="直線接點 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EE91C9-4A6D-472C-B054-DBA5E08C65D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0625C460-0AA7-4C5D-9EF1-BB889C866047}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +970,7 @@
         <xdr:cNvPr id="5" name="直線接點 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF118E1-51B9-4C3C-8A81-D03C1509E100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EEA085-65A5-461D-9599-19119174789A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1025,7 @@
         <xdr:cNvPr id="6" name="直線接點 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEF6399-8DD7-46EF-B04F-9D0AA90CD696}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F21882-7D74-4A43-B80D-989D3BF91265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1080,7 @@
         <xdr:cNvPr id="7" name="直線接點 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAD42EA-7413-4065-AF56-FD38390B39D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621DDF31-6B6C-4B6A-A70A-0355DC076220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
         <xdr:cNvPr id="8" name="直線接點 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1420C4-660D-487C-8F9B-7E67B8FB6BEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0310168E-0939-444A-A7FC-1A999702947E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="9" name="直線接點 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FD770D-42DC-4247-8526-10DD71965F2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8785742D-EDCC-4B84-BC42-FB9404594603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="10" name="文字方塊 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF34097F-CA14-4EFE-9217-0285EE60EABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35DCE3F-4B60-46E5-B014-A48A92C0418C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="11" name="文字方塊 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A255FE-8081-471B-994E-D21514FEAB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126C3CE9-790B-4AB3-9406-405985EC69EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="12" name="直線接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236417A7-4828-4A9C-9793-548D4E4E88F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07F197-6A1C-4656-92A7-BDCCF95A2860}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
         <xdr:cNvPr id="13" name="直線接點 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E3A8FC-561B-4C7B-8EFA-C2DC5A3ACA44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5FFE38-8E4A-49EE-A50D-019BE2A6C857}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1551,7 @@
         <xdr:cNvPr id="14" name="直線接點 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B00A12B-CCE3-413D-BC5F-2F4B7D2EB0C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEDEC80-384E-421B-9FF7-2407C6CD5B60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1606,7 @@
         <xdr:cNvPr id="15" name="直線接點 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B322201-B4B5-4DEC-84D0-5F5D2586983E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D56BA2-1385-41C4-BA62-AAAEAF02DD39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="16" name="直線接點 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4972F580-0A98-4A32-AF76-EAD8C9F81A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159EF9D8-9F2E-4B4F-A7D6-1B2DEC1C9D49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1716,7 @@
         <xdr:cNvPr id="17" name="文字方塊 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA0AB6-31E1-4B23-A2A4-67F83FC5A0F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720C36DD-2D0C-45BD-B951-84AFBA933361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1814,7 @@
         <xdr:cNvPr id="18" name="文字方塊 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C4C9B2-E284-424A-BA54-F77E2FB94939}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C27DDD5-DA06-4EBB-9B76-DB9C12D90F2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1912,7 @@
         <xdr:cNvPr id="19" name="直線接點 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2AA6D1-A030-4C2A-A228-8C4CA0361550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A26A0-D9BE-4FAE-8825-1824D27ED897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1967,7 @@
         <xdr:cNvPr id="20" name="直線接點 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5354B85E-72D0-4837-8C28-D001EE6BEBF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C9C5E-0A5C-404F-8FC0-56364772A538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2022,7 @@
         <xdr:cNvPr id="21" name="文字方塊 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19B6FFF-4ECA-409D-BEAB-E662D6500944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDC4F0E-EDB3-4C84-9581-066B39790E15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="22" name="直線接點 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CCDE01-F0AA-4418-B6D2-7CACEEA831D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D8A4D3-AABB-43F4-9057-E5EE7B44DEB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="23" name="直線接點 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C47853-CA12-4391-871C-D61925509EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28528B9C-1095-4CEE-A46C-72B3C4B2A2E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2230,7 @@
         <xdr:cNvPr id="24" name="直線接點 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E024EF5-884F-4F8D-A6EC-9E7D390AD5BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACB7F24-55D4-4040-92A2-8F3AA5236251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2285,7 @@
         <xdr:cNvPr id="25" name="直線接點 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E5C931-2E73-4485-A5B6-47EDD8665482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9406E678-A886-4C14-8F03-BA2CE04BE39E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2340,7 @@
         <xdr:cNvPr id="26" name="直線接點 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F570DF4-F633-4DA2-BE56-EEC10A6FC466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AED8019-565E-49C7-A862-70AE2E1A9FA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2395,7 @@
         <xdr:cNvPr id="27" name="直線接點 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087F33EF-EB36-48F6-8A6F-1566C67141AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F64A7F-DDAA-42EF-B817-727DAFF8231F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="28" name="直線接點 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5F2EC8-1716-497E-AC53-0BACF523FDFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D512E69D-86BB-42FD-8CE1-EAA4BADD888B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2505,7 @@
         <xdr:cNvPr id="29" name="直線接點 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BAB17A-6884-424D-BF09-A55CA191C63A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DA5C75-1CCC-4D13-BA67-98C3102772FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="30" name="直線接點 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A2DFA9-58FC-457A-BB84-93DF6CB2E458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF5FF4F-F237-479C-8E18-247A253FE73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="31" name="直線接點 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2330F126-F709-41CF-86F0-39709D574862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D1C155-D8D4-43D4-BD1E-53ABC58F619A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2670,7 @@
         <xdr:cNvPr id="32" name="直線接點 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5D3E17-9CAE-4F4E-9F80-5CB8BD1229C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3387FC82-C604-4BBF-A160-1F5CBF9A4E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2725,7 @@
         <xdr:cNvPr id="33" name="直線接點 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374C4B44-CBAB-4AC0-AE26-19434E29236B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82886488-BEDB-44B3-9A4F-360069D3BA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2780,7 @@
         <xdr:cNvPr id="34" name="文字方塊 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDDD7C9-F8ED-4D05-B2DC-9B6465585581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C2E202-FDFA-4F58-A0BB-7354BA0CB234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2878,7 @@
         <xdr:cNvPr id="35" name="文字方塊 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B848D64-2CAE-4563-B8ED-0D9DF585B8BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5559A0F-038B-4D03-88E8-0898AE88B994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="36" name="文字方塊 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6D45BF-3728-49F4-93F1-4207A2790325}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33BBFD3-5580-4BF9-89C6-39AA7D830CDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3074,7 @@
         <xdr:cNvPr id="37" name="直線接點 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525BE52F-1B54-4821-9E7A-2A03CAF5C0BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DE16CE-8300-49D2-9110-0F9E3DC978B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
         <xdr:cNvPr id="38" name="直線接點 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8394B0-D72D-41D6-A53F-A4BE64E886C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683EB015-4722-4BB2-BB0B-4644A09EF82A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="39" name="直線接點 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FFFA705-5D4C-4F37-A33C-A30F58C329BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4360F02B-F954-4DCC-A3E2-50A87D30CB4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="40" name="直線接點 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465044D1-A49D-4AA8-98FB-DB6EE7584B59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58A8728-AEA6-45A6-ACEB-730F6405D611}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
         <xdr:cNvPr id="41" name="直線接點 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44C49D7-C9E7-4933-9CB2-29B6D2C726FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06008D4E-E082-4E37-ABE3-2C4C3F817CF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3349,7 @@
         <xdr:cNvPr id="42" name="直線接點 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70584F67-B1C9-4908-A55E-28748AFC2633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA5C31D-2AA6-4FDB-B86A-D48DCD0B931A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="43" name="直線接點 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF7BD24-6AC0-4741-BDB4-EDD194F3C7CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBDB877-E1D8-484E-8319-C9FF28B869A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3459,7 @@
         <xdr:cNvPr id="44" name="直線接點 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70B550B-4544-4EFF-8684-73FA6C02B599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32F1240-05C6-43F3-8E83-9CC5A298ACAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="45" name="直線接點 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40905548-FB63-4719-B84F-A5EF0860D7BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F36D7C-C863-4FB0-B4B1-34B7E2AEA225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3569,7 @@
         <xdr:cNvPr id="46" name="直線接點 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF964904-4047-4D07-938C-341EB38C8A04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F736EF43-6D0C-4C29-9C67-4A3432206A0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3624,7 @@
         <xdr:cNvPr id="47" name="直線接點 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBA0BEA-89DD-4471-8766-3F26D2321B25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AC99C0-1829-4197-903C-0DCF5641D883}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3679,7 @@
         <xdr:cNvPr id="48" name="直線接點 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDF575F-2BC9-44BE-8286-07EE3E9ABCD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFC8B5F-8B74-44E3-BC26-DA88026A847C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="49" name="文字方塊 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E460E7-54A7-4439-A8BC-1C9CB8E16237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B018BF4D-571B-4F77-ABFC-FC1BB1F96CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3832,7 +3832,7 @@
         <xdr:cNvPr id="50" name="文字方塊 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A84518E-B087-4033-A724-45BFBC837434}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E507E5-0364-4034-9BFF-0EC8336CAD22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3930,7 +3930,7 @@
         <xdr:cNvPr id="51" name="文字方塊 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08E2C07-C154-46D6-9D4B-B29630FF4809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F88113-7575-4D0D-9F3B-9CA1AE62E553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,7 +4028,7 @@
         <xdr:cNvPr id="52" name="直線接點 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E0C5A3-A2D9-41F6-9455-99BA4D88094C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B38890-3737-4CC2-955E-DD57E9A30C83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4083,7 @@
         <xdr:cNvPr id="53" name="直線接點 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DD3C30-2A24-464A-81D1-CCF4B9655F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788C8A44-C83E-4C3E-9922-A90319FEA830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4138,7 @@
         <xdr:cNvPr id="54" name="直線接點 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357A2584-C239-4A09-AC5B-B0F341B73FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBBA540-7A81-4518-B840-D9C4A4781609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4193,7 @@
         <xdr:cNvPr id="55" name="直線接點 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1652C78D-3B75-4BB6-821A-307C5F944E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBB4836-0E26-491F-80C2-50CF693B0D45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4248,7 +4248,7 @@
         <xdr:cNvPr id="56" name="直線接點 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944FA9CF-18AE-4150-A2B8-9A98F9420247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCC606-50D6-41C3-9641-B4BEEE362777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4303,7 @@
         <xdr:cNvPr id="57" name="直線接點 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAD9078-DA67-44AB-B1F3-0558D76E154F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437C3867-6579-4BAE-B287-E8B30AED4D03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4358,7 @@
         <xdr:cNvPr id="58" name="直線接點 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65C396B-385F-4A4C-B61B-41AB1D392C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD0A53E-6221-45B1-B9B1-B809F061ACFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4413,7 +4413,7 @@
         <xdr:cNvPr id="59" name="直線接點 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0FF77D-0F76-4EB8-A57F-DF33C82F20C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950D7C53-3DEE-4C8F-8CB2-F218A7F25861}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4468,7 @@
         <xdr:cNvPr id="60" name="直線接點 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A22A92-ADA8-4089-A1B7-34FC42252D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DF8048-BF5E-4C4A-B521-9D2C91C35399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4523,7 @@
         <xdr:cNvPr id="61" name="文字方塊 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB56CF16-719A-4686-9416-23EE54236C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C2A6F8-4397-47B2-96FC-F0B91EADF8C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,7 +4621,7 @@
         <xdr:cNvPr id="62" name="文字方塊 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAED11BD-2ECB-436C-8768-9467315658F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BED8BD-4713-4BAA-B67A-17D1FC8226A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4719,7 +4719,7 @@
         <xdr:cNvPr id="63" name="文字方塊 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004E657A-46CC-43DF-AFDF-160F21562504}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F958F28-8CA4-48E5-B063-8F2EDA2B8599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4817,7 +4817,7 @@
         <xdr:cNvPr id="64" name="直線接點 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00685EC6-7BD7-4D69-92DF-02D235DE8760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC4185B-DE74-4B98-B58A-11CDDC042851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4872,7 +4872,7 @@
         <xdr:cNvPr id="65" name="直線接點 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708C7FEC-60ED-46F7-B314-449722B3C2B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC5E898-29A5-4647-9E01-1B760D3305D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,7 +4927,7 @@
         <xdr:cNvPr id="66" name="直線接點 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B7BAEE-1971-48BB-A535-21167BE6A4C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB75856D-3B1B-4ECF-B40E-9963203A2AF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,7 +4982,7 @@
         <xdr:cNvPr id="67" name="直線接點 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB51DD26-21C4-41F9-8710-AABE58571346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2317DCEF-28D2-415C-9B05-2D8C8ED79DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5037,7 @@
         <xdr:cNvPr id="68" name="直線接點 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A1420-D6B4-4C19-935D-E6DD0F5D6594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065EDF13-50C0-4EE5-B09B-E5C5314384E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,7 +5092,7 @@
         <xdr:cNvPr id="69" name="直線接點 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433499F1-53D4-42EB-8311-03DBC54849C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12009B26-59F8-420A-A967-60B3244BF641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5147,7 @@
         <xdr:cNvPr id="70" name="文字方塊 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF31C53-22BE-4CC5-8A47-A96969809FB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051FEB6E-B5A2-46A2-B42F-2FD85995CAD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5245,7 +5245,7 @@
         <xdr:cNvPr id="71" name="文字方塊 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305A674D-92B7-4788-A715-C54D2942D9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F13586-0C2F-4246-AE27-CF96FDE57575}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5343,7 +5343,7 @@
         <xdr:cNvPr id="72" name="文字方塊 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD05E3B2-CA01-4670-81F0-896ACAF68451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFE27E1-170D-4B44-86DC-AB376BF2D3F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5441,7 +5441,7 @@
         <xdr:cNvPr id="73" name="直線接點 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0F6CDD-E988-4B51-9348-3110489CE39D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8720ACAE-85A3-42C0-BDE7-21089F3636C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5496,7 +5496,7 @@
         <xdr:cNvPr id="74" name="直線接點 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C323BB-37FF-424D-92B3-CF41083E8482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFF567B-390C-4442-A8E4-2C5280C415D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5551,7 @@
         <xdr:cNvPr id="75" name="直線接點 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD999867-81DA-4B05-A566-C5FA57D8DC78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A79804-D651-4D8B-A6AF-F64EB19EAA71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="76" name="直線接點 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F4842A-139E-4763-9D57-1E8A2FFD896C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B87402F-09F5-4607-BA6C-2677698AEE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5661,7 +5661,7 @@
         <xdr:cNvPr id="77" name="直線接點 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60B0B72-6675-42CC-B572-599759962ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1C0EA0-F463-42C1-AB86-22DA9C4362BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,7 +5716,7 @@
         <xdr:cNvPr id="78" name="直線接點 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F8E92B-C284-40EA-9512-0E2FDB4E417A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D83A2-303C-43E4-86E9-78DACE5FC48E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5771,7 +5771,7 @@
         <xdr:cNvPr id="79" name="文字方塊 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3334B613-34DA-4E62-99F4-FAF350E83BF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B9C927-7D2A-4B56-B2A4-311285A75EB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5869,7 +5869,7 @@
         <xdr:cNvPr id="80" name="文字方塊 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208C7A3C-ADD1-4A55-A3C6-5984894AE64A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9E8842-6145-4BA9-92BC-10C9CED460CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5967,7 +5967,7 @@
         <xdr:cNvPr id="81" name="直線接點 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A212D191-E8F3-4C88-B886-D935B0D898EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F725517-733F-412A-838B-061ABCA3A5EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6022,7 +6022,7 @@
         <xdr:cNvPr id="82" name="直線接點 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923D32D6-92BA-4832-8BEC-4C8BB6393CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B88BB-72D8-4BA5-9402-AFDD6CC66875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6077,7 +6077,7 @@
         <xdr:cNvPr id="83" name="直線接點 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047B4012-C401-4129-A4B1-A8CC94EB8035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07B2B53-156A-4CBD-A169-720A9ECFBA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6132,7 +6132,7 @@
         <xdr:cNvPr id="84" name="直線接點 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1604620-A9A4-48D1-9050-7E608F31BA6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B4AF94-BAD0-48FA-A3FD-E511AA9622A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6187,7 +6187,7 @@
         <xdr:cNvPr id="85" name="直線接點 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB551286-C3B7-425E-8249-772BAA56CAEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93615921-979C-4434-A6CE-0CBDBE4B3A72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6242,7 +6242,7 @@
         <xdr:cNvPr id="86" name="直線接點 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1523A1B8-8532-4E2D-BABF-08A47A152DC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B59E38A-9151-4715-8ACE-224EE4CC201D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6297,7 +6297,7 @@
         <xdr:cNvPr id="87" name="直線接點 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDCD587-6CAA-4D12-A52E-A109A8F01A3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EEDD2E-CBD1-431C-9594-B41B97F8C234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6352,7 @@
         <xdr:cNvPr id="88" name="直線接點 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492CEC2B-7506-4AA9-9A1E-CCFBC207A8CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546FBA36-0C56-48C6-8C49-D54CEFDDB4C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6407,7 +6407,7 @@
         <xdr:cNvPr id="89" name="直線接點 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050D5530-4EDE-43B7-9DF3-1FA05A24D057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249ACAE0-13D3-4AF8-B449-C049CE89B3F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6462,7 +6462,7 @@
         <xdr:cNvPr id="90" name="直線接點 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558E2B59-0554-4356-9510-C3B879DAF821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30311D45-9F1C-44D5-8E87-275D4278B4EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6517,7 +6517,7 @@
         <xdr:cNvPr id="91" name="直線接點 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93A6E5B-349C-4B59-B6CC-F0A257994CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2941B64-BE64-4BBE-884C-A2A61E654A8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6572,7 @@
         <xdr:cNvPr id="92" name="直線接點 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB36890A-73E5-4577-AF42-397B3B6DFCEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277F4E4C-84AF-4FF7-A5E8-3AF13A11645B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6627,7 +6627,7 @@
         <xdr:cNvPr id="93" name="直線接點 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD39A1F-1E94-41BC-8D16-54B24888ADBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938E580B-138D-40A2-8D5A-CD4E0628131D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6682,7 @@
         <xdr:cNvPr id="94" name="直線接點 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CDE330-6403-4541-B9DC-C32F056A954E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D369768-0F98-4826-8778-CBB734D01055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6737,7 +6737,7 @@
         <xdr:cNvPr id="95" name="直線接點 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECA3586-C4A8-4356-8470-BE7C0E4BCCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B9725D-220C-4BFB-8352-DD2C5F41067F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6792,7 +6792,7 @@
         <xdr:cNvPr id="96" name="文字方塊 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1F9A23-F409-4CF4-BA77-AE11CA74054F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4302D60-79E0-406A-87C8-05020D9B0C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6890,7 +6890,7 @@
         <xdr:cNvPr id="97" name="文字方塊 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D1DD06-44E9-43E1-A024-2D483CE067BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9AB9EF-34B1-4B55-A97A-46BA51F6E2B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6988,7 +6988,7 @@
         <xdr:cNvPr id="98" name="文字方塊 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6813318E-ED51-42E9-A6A0-005669078D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED37909-03C6-42E4-B21B-00EC427B2A43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7086,7 +7086,7 @@
         <xdr:cNvPr id="99" name="直線接點 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EF4A58-DD16-40BC-8735-66E610888789}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1070240-0917-4651-A6D0-C9503529990C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7141,7 +7141,7 @@
         <xdr:cNvPr id="100" name="直線接點 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE625C4-284D-4B37-8A4C-5C55B17C5243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963E42F7-FE93-4177-82E2-601910F7A7BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7196,7 +7196,7 @@
         <xdr:cNvPr id="101" name="直線接點 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B16E41-6C62-4933-B9F6-8B0367C8F057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE3CF8C-837A-44B8-9BF8-779EBFF4C728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7251,7 +7251,7 @@
         <xdr:cNvPr id="102" name="直線接點 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A9F4F1-00D0-449B-8A9C-4803FADECA3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77034E85-F30B-4B5B-B315-CAA3832F656B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7306,7 +7306,7 @@
         <xdr:cNvPr id="103" name="直線接點 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A491B46-783D-47A3-9258-4A3678EBDFB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BDC8C0-EC0E-4BA9-8AED-0940754CDECA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,7 +7361,7 @@
         <xdr:cNvPr id="104" name="直線接點 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36AF1AF-F872-457B-99CB-E8841F47AED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F4CDA2-0DA9-47A7-986D-7EEA42781D25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7416,7 +7416,7 @@
         <xdr:cNvPr id="105" name="直線接點 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C1761B-D05E-447A-8CF1-D82A28B2DAD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6C8D92-236D-48F9-B7C5-70800D89A89E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7471,7 +7471,7 @@
         <xdr:cNvPr id="106" name="直線接點 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2361A0B3-9596-4203-99BC-25D0EACB7575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA760A3F-3439-45F4-A2D8-0BB013AB5E8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7526,7 +7526,7 @@
         <xdr:cNvPr id="107" name="直線接點 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4394EBCB-5E14-43AD-9AB3-D95898B9F23A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80F1293-7A09-4E61-8203-849C0E9CF8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7581,7 +7581,7 @@
         <xdr:cNvPr id="108" name="文字方塊 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2219D3B5-94AA-42B1-ABEE-ED645DCF7399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F75232-B63E-47EB-97D1-B674234241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7679,7 +7679,7 @@
         <xdr:cNvPr id="109" name="文字方塊 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EB67DC-0EA1-46A6-9E02-2FCA305FAD0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFC76E4-1E9D-48FD-AA4F-267A6585B245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7777,7 +7777,7 @@
         <xdr:cNvPr id="110" name="文字方塊 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF30E682-0ABC-4AF3-AA41-562CC8115339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD91C9E3-6442-418C-B12A-3EB3AB01885F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7875,7 +7875,7 @@
         <xdr:cNvPr id="111" name="直線接點 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CA2A76-DCD0-4236-91CA-B39CA3BA4439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92177A1A-C4C2-4F1D-974D-FF0EEF62F188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7930,7 +7930,7 @@
         <xdr:cNvPr id="112" name="直線接點 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B4D14A-FF2B-48C2-B59E-D733022D8533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0DA01C-23D6-452D-A77A-F247CF14FB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7985,7 +7985,7 @@
         <xdr:cNvPr id="113" name="直線接點 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB42B05-7530-459D-A41A-3A07C8E64524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D1BA27-19FA-435D-B6CA-95634EFE295B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8040,7 +8040,7 @@
         <xdr:cNvPr id="114" name="文字方塊 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8AFAF1-DF7D-4B59-B713-6834CEC6C163}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D3FFB2-FCF9-46F4-94EF-1854239D03E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8138,7 +8138,7 @@
         <xdr:cNvPr id="115" name="直線接點 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A3E1F0-75C7-46E1-9A0B-B1BF9C0083D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8620B0C0-653D-4458-939A-A68858F361F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8193,7 +8193,7 @@
         <xdr:cNvPr id="116" name="直線接點 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E66B7E-EA8B-47A7-93D7-41B77F2B2943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36267CCE-EA95-4A2C-AEB7-23EB920164C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8248,7 +8248,7 @@
         <xdr:cNvPr id="117" name="直線接點 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A58C4BA-1D24-4D4E-A307-B68943419178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABBB30-7730-4322-924B-0696DD8AAB8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8303,7 +8303,7 @@
         <xdr:cNvPr id="118" name="直線接點 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF35EE2-35CC-453F-AA44-040706626995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31636BD4-3F3C-4488-AAB8-E8EB2810217F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8358,7 +8358,7 @@
         <xdr:cNvPr id="119" name="弧形 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2761D6D-01A3-4C95-906F-769965A25171}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76F6EF4-9F20-4C94-B996-209C4854526A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +8424,7 @@
         <xdr:cNvPr id="120" name="弧形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E78FB1D-EB24-480B-B622-9127985E414C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB6F08C-16C2-41A3-A52D-72FB61147AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8490,7 +8490,7 @@
         <xdr:cNvPr id="121" name="文字方塊 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB95E461-EB86-45EA-A6F4-663EB2C980FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBB7DBA-C145-4220-80B8-1E95136778DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8588,7 +8588,7 @@
         <xdr:cNvPr id="122" name="文字方塊 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50062EAB-4AE5-4237-AA7D-16683484CDB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ABA9A4-EA1A-4005-92F5-BAF047CD9AA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8686,7 +8686,7 @@
         <xdr:cNvPr id="123" name="文字方塊 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9F39F0-03F9-4DFE-A6ED-B2F434EBE3C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABECFA0F-839C-46D9-82A4-21D56CB2399D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8784,7 +8784,7 @@
         <xdr:cNvPr id="124" name="文字方塊 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3525CA-A5C3-4B6F-BDCB-1599BD0C2FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41276449-7A23-441D-AE6A-CEF286C27666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8882,7 +8882,7 @@
         <xdr:cNvPr id="125" name="直線接點 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFE5970-E0DB-4915-ACAF-3C5D09D74538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C067E544-7077-4881-A70B-1E2318193935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8937,7 +8937,7 @@
         <xdr:cNvPr id="126" name="直線接點 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B541E9-BEC3-4C14-944C-0A426ECF8196}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9FE2E3-F3EC-4D38-A84B-B613A09364B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8992,7 +8992,7 @@
         <xdr:cNvPr id="127" name="直線接點 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D7AF8A-09A4-439C-8F96-20B10987DE86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299A6C2D-7FBD-49A3-A70E-90A8AA8A67B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9047,7 +9047,7 @@
         <xdr:cNvPr id="128" name="直線接點 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2548CF5D-8087-4D7A-8DB5-60852AD6D865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898836CE-D9FD-4075-A808-0892FCC77E17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9102,7 +9102,7 @@
         <xdr:cNvPr id="129" name="直線接點 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28D4BCE-03E4-4E31-8927-281EE263A1A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA197D75-3A28-4A90-B0A5-AEF3D05C7418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9157,7 +9157,7 @@
         <xdr:cNvPr id="130" name="直線接點 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4DC015-9D86-4CD4-A919-3771DF71BC22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478BAD33-4257-48EF-8156-D81061C217F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9212,7 +9212,7 @@
         <xdr:cNvPr id="131" name="直線接點 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B423BC6A-59A9-43A2-874E-578D08D1A150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3068B6-20AB-4F55-A473-0D94C2899576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9267,7 @@
         <xdr:cNvPr id="132" name="直線接點 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0051EF1B-4397-4260-927F-BBB6CC962FE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1080A99-536D-48F4-BBAA-1E0B9D9E3B81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9322,7 +9322,7 @@
         <xdr:cNvPr id="133" name="直線接點 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D9DA8A-FAB2-40AC-82D7-6426C562CC06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5178E9BE-D4F1-4866-BF91-0DAEBA24B646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9377,7 +9377,7 @@
         <xdr:cNvPr id="134" name="直線接點 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBEA8F7-8BD4-48A1-8E02-886A2502BF14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B366AA66-49E8-4395-BBD4-914EC393DD11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9432,7 +9432,7 @@
         <xdr:cNvPr id="135" name="直線接點 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D77B8A-B9E6-4D56-A694-7480879C6BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91965DA7-C9ED-4EB9-A054-4D3B32ECFD7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9487,7 +9487,7 @@
         <xdr:cNvPr id="136" name="直線接點 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C82D29-D31F-4360-B7DE-209E2F4560A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14786ADE-A000-43EB-9BE0-108A12DFBAC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9542,7 +9542,7 @@
         <xdr:cNvPr id="137" name="文字方塊 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE3C946-1278-4DA3-B685-4C6434D97EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB820CF8-FBB2-4CBE-9ADF-7A5092E57672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9640,7 +9640,7 @@
         <xdr:cNvPr id="138" name="文字方塊 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C170EDC-BEFE-45BC-845A-FFDB0F00D0D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E126585B-5B6D-4425-BBBF-2FCFB3C64B12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9738,7 +9738,7 @@
         <xdr:cNvPr id="139" name="文字方塊 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE41849-6039-4662-8A2C-53FD6B196649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51FA961-A93A-4084-9C4B-AB5B9B8DBAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9836,7 +9836,7 @@
         <xdr:cNvPr id="140" name="直線接點 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49666055-9338-4882-8802-CFFCC0F978A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82664704-6F9A-4C3D-8636-8D1734484F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9891,7 +9891,7 @@
         <xdr:cNvPr id="141" name="直線接點 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F85626-CE69-435E-A79F-890BA3C5F2EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7064B1E-4A38-473A-80D5-CE871DEB7A43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9946,7 +9946,7 @@
         <xdr:cNvPr id="142" name="文字方塊 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71991039-0A2A-4461-AF25-4F1C9448A28B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA8094F-030C-4F10-9456-B586411F784A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10044,7 +10044,7 @@
         <xdr:cNvPr id="143" name="文字方塊 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C784CFF-032B-4A66-92BE-FF7D9C3D614B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520F7FFC-6309-4787-BD64-5C2445262AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10142,7 +10142,7 @@
         <xdr:cNvPr id="144" name="文字方塊 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B00FF0-41A6-4D3F-BF24-1E356BD74C26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A879018-34A6-4C9C-B0A2-7ACE69A6A170}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10240,7 +10240,7 @@
         <xdr:cNvPr id="145" name="直線接點 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551CFA1D-1B68-4049-A81D-5D8F6CBBE4AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1C757E-F4B2-4CBB-9519-E65DFB3EBB66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10295,7 +10295,7 @@
         <xdr:cNvPr id="146" name="直線接點 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E72962-EDA5-4E5D-B71B-551E6305CE08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F2CE4A-2DF1-45C6-BD6D-DB996321E7C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10350,7 +10350,7 @@
         <xdr:cNvPr id="147" name="直線接點 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0818161-9CBD-4B39-A520-2ABC5C9591D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC4E48A-CF21-47C8-BE43-721E6E194689}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10405,7 +10405,7 @@
         <xdr:cNvPr id="148" name="文字方塊 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149A0101-EAEA-47D7-9719-78FC6A29D7ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0760ED1D-720C-466F-BEDD-31E2DC95792F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10503,7 +10503,7 @@
         <xdr:cNvPr id="149" name="文字方塊 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF07B30F-D61A-4FE3-A71F-1E7589F785A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16650AD-B871-401D-9B17-53E97530B534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10601,7 +10601,7 @@
         <xdr:cNvPr id="150" name="文字方塊 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F561B68C-4826-4A57-A273-D4A30A092928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C023BCD4-0023-42AD-A99D-4B02A7B6A4AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10699,7 +10699,7 @@
         <xdr:cNvPr id="151" name="直線接點 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2AF413-9565-458A-BF30-DA84E77A8220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5916881-4CA6-49E7-A045-9FA254B811C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10754,7 +10754,7 @@
         <xdr:cNvPr id="152" name="直線接點 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35540C38-789E-48A7-B532-330C0B26B049}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBF7D5B-DABC-460B-8818-A0F52997840A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10809,7 +10809,7 @@
         <xdr:cNvPr id="153" name="直線接點 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD588C7-B972-4925-991D-0856CD372830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9322CEF3-E682-498C-BB12-52667C1CED3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10864,7 +10864,7 @@
         <xdr:cNvPr id="154" name="文字方塊 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AFEDB2-F994-4E9C-9709-6FFDFAA921CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671A7377-CBCF-41A8-8920-D79402B15BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10962,7 +10962,7 @@
         <xdr:cNvPr id="155" name="文字方塊 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4544A9D-D5AC-4712-815F-B44C02BE01CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC0399C-4FD0-4B81-A050-F2D22F5F1CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11060,7 +11060,7 @@
         <xdr:cNvPr id="156" name="文字方塊 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0017684-908E-472F-BCD6-56D8AAB074F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D7536B-2263-4268-9BD2-931890A18344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11158,7 +11158,7 @@
         <xdr:cNvPr id="157" name="直線接點 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DFF6A5-7F1B-4B78-8E32-DD2699250DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9166E8-FFDC-4724-A88A-705DC47E0562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11213,7 @@
         <xdr:cNvPr id="158" name="直線接點 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0238979-D542-4E4B-B1F4-37516C4868D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C495CA38-05D2-4E34-8F2A-45168C4DFD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11268,7 +11268,7 @@
         <xdr:cNvPr id="159" name="直線接點 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C59882-53DE-4372-A17B-640ADF01969A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D2BBFB-55A7-4D71-805C-BD8767636D0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11323,7 +11323,7 @@
         <xdr:cNvPr id="160" name="文字方塊 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10621956-A346-4CFF-9FD8-1F5846D1290A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6C91AA-95B3-4867-8EDB-836BD92DF6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11421,7 +11421,7 @@
         <xdr:cNvPr id="161" name="文字方塊 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED810E8-683C-4927-8077-5FA2C4EF52EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F6BD0F-4ABD-4A6B-A83D-F3B7C3EC062B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11519,7 +11519,7 @@
         <xdr:cNvPr id="162" name="文字方塊 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C5F79E-9715-4D4C-B849-1955844B9076}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDFDD05-8941-441E-9E83-F6BFC1C3B90F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11617,7 +11617,7 @@
         <xdr:cNvPr id="163" name="直線接點 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FB2973-7F07-4595-83EF-11CF3AC1983D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86D7DC1-C39F-416B-A5C7-5FA99CCF16F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11672,7 +11672,7 @@
         <xdr:cNvPr id="164" name="直線接點 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D0F51B-5B67-45D3-B841-D103BFF50419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2F6933-8892-4393-AA19-F5067BEEA839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11727,7 +11727,7 @@
         <xdr:cNvPr id="165" name="直線接點 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E51BE85-34DB-4E7B-8CA2-152C76BA5CB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015F36FB-9593-424C-B379-E0D77C2D6E44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11782,7 +11782,7 @@
         <xdr:cNvPr id="166" name="文字方塊 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C8F504-7F84-43D0-BC22-8B8F47803563}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167D0B47-63FA-4D29-803E-9130D4429953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11880,7 +11880,7 @@
         <xdr:cNvPr id="167" name="文字方塊 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67524F7-8EC5-4577-8E68-69A237BCE467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C1A1F8-15A7-4989-9EC2-7D83D40A3A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11978,7 +11978,7 @@
         <xdr:cNvPr id="168" name="文字方塊 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91CCF1F-CAA2-45FB-B9E9-AE3B0E056E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4217B1B-2ABD-4D58-9592-5DEB3DB432EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12076,7 +12076,7 @@
         <xdr:cNvPr id="169" name="直線接點 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD97F968-39D5-4049-A855-C30967E34DCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F6DD10-1631-4ADC-B4D9-E8D686DB3C56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12131,7 +12131,7 @@
         <xdr:cNvPr id="170" name="直線接點 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9DC625-EA06-4A51-8214-11C0E6E0EB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD25DDD-F116-4A8B-9DE0-ADB21F74BEFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12186,7 +12186,7 @@
         <xdr:cNvPr id="171" name="文字方塊 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECAD7D5-2CCA-403B-A0F0-1B01C5935B8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E62FA8D-7BD4-4958-81D3-D10A399AC6C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12284,7 +12284,7 @@
         <xdr:cNvPr id="172" name="文字方塊 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447F5540-321E-43CE-A467-C273F3BA1E40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECD8D87-CCCB-44FC-9D50-F21A3ADF95BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12382,7 +12382,7 @@
         <xdr:cNvPr id="173" name="直線接點 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D154F9CF-DBBC-44DD-B62B-F3E847EA7663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3646990A-9D9A-4E21-9D3E-41A60DE7E4AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12437,7 +12437,7 @@
         <xdr:cNvPr id="174" name="直線接點 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE50692-128F-42D4-8EFF-E5109322533E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC047CB7-74F8-4F2E-B62D-8BEE2BF27F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12492,7 @@
         <xdr:cNvPr id="175" name="直線接點 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE41D5E-3622-483A-B63B-046AEB20F621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E74F28-3112-455D-B7F7-F8856CA2677E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12547,7 +12547,7 @@
         <xdr:cNvPr id="176" name="直線接點 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1769632-A050-4B67-8A84-D43EBB8F7A64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF3062-39B9-44A3-A761-6A4BAB7DC3D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12602,7 +12602,7 @@
         <xdr:cNvPr id="177" name="直線接點 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A74A8-2D12-4833-A977-D746EC955587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AD5E53-16F3-440A-A4F8-00D6CD994DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12657,7 +12657,7 @@
         <xdr:cNvPr id="178" name="直線接點 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CE6715-9910-4B3A-B1A3-E335F2EE7D5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E4B530-CC6D-4610-B561-C66ADD27DF2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12712,7 +12712,7 @@
         <xdr:cNvPr id="179" name="弧形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74446F8F-CE06-4D71-BDFB-E4389BD47961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4503802D-D3A2-45C3-A7D8-8C5CF111A77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12778,7 +12778,7 @@
         <xdr:cNvPr id="180" name="弧形 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232145BF-30F5-414D-833F-0332F38707A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E22CD9-379B-4F1C-AE31-0AB0B191721E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12844,7 +12844,7 @@
         <xdr:cNvPr id="181" name="弧形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF34C37-0BB1-4F7A-9808-BABD9E956CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA355CE-AF47-4B47-BB81-30F65B9020E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12910,7 +12910,7 @@
         <xdr:cNvPr id="182" name="弧形 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC03543F-3343-470E-AF0C-72BDAC0EF3CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFA92A6-33A7-4842-ADD3-2F59DC36CA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="183" name="弧形 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29085E7-1035-4C61-8179-C2AF1BAE5445}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5A9EF1-3E91-4B36-A914-5A5BD3822C63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13042,7 +13042,7 @@
         <xdr:cNvPr id="184" name="文字方塊 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE7D769-F460-469F-9210-E7D81C81DE74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FD8E7E-4964-443B-B9F4-733F8FCF15DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13140,7 +13140,7 @@
         <xdr:cNvPr id="185" name="文字方塊 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC95A9B-E730-487B-90B3-EE7DE3576259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C579AE31-8C17-4EBD-8273-809FF8BAF7BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13238,7 +13238,7 @@
         <xdr:cNvPr id="186" name="文字方塊 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB470C8-5858-42DC-AA3E-5CD97F2E196B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05671E0-E1DC-4E2E-96BB-E0B77271570C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13336,7 +13336,7 @@
         <xdr:cNvPr id="187" name="文字方塊 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A44020B-BE8F-4AE7-BDFF-4A406FFED876}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8CCDEF-A905-478B-9C99-5E0F91F0C0A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13434,7 +13434,7 @@
         <xdr:cNvPr id="188" name="文字方塊 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163E0C82-8C96-43A3-9735-24A28E445B14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2030C52-A192-42FF-9288-2F83E6BB41DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13532,7 +13532,7 @@
         <xdr:cNvPr id="189" name="直線接點 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD43D593-608C-489C-A2AE-98BB256F2F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F23962-0100-47B8-A8F6-807258CD6092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13587,7 +13587,7 @@
         <xdr:cNvPr id="190" name="直線接點 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45270E1B-E280-4668-B019-76F7F7E7744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944A7166-B518-4392-893A-78BCBAFEAE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13642,7 +13642,7 @@
         <xdr:cNvPr id="191" name="直線接點 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A382B0-0F70-4515-807F-343194F7749D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699BBD7D-DFB0-497D-B962-D8D933552C5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13697,7 +13697,7 @@
         <xdr:cNvPr id="192" name="直線接點 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D423D81D-6BE2-4EA4-98BA-6817297BA5B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA38CF63-822E-43A4-8D25-CD673FA0D6AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13752,7 +13752,7 @@
         <xdr:cNvPr id="193" name="直線接點 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363C2F2C-BEB8-4A7F-8DAF-8BD5404E8F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614760C9-F7FB-41CC-837E-D09AB48E82BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13807,7 +13807,7 @@
         <xdr:cNvPr id="194" name="弧形 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9629CA-56C8-414B-B42D-F50BCFFC69CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A64403-1882-434A-B1E6-DA7FDF62B6CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13873,7 +13873,7 @@
         <xdr:cNvPr id="195" name="弧形 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478AA40A-6781-40F5-ADAF-1D7A882FAE22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51F5971-3D8B-4615-8567-F21154082300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13939,7 +13939,7 @@
         <xdr:cNvPr id="196" name="弧形 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F964A3-FA61-46D9-9CB8-BDD219D8DCFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A255FF05-3F1A-40AF-BC05-7B4FE27E89AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14005,7 +14005,7 @@
         <xdr:cNvPr id="197" name="弧形 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5A955D-A786-4E4E-AE5D-7DBC4D23F454}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A281E5D-B285-48DE-81A8-AA24EE513727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14071,7 +14071,7 @@
         <xdr:cNvPr id="198" name="文字方塊 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE1A900-734A-4C29-9271-551F972A7042}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5804EC7F-056D-4CD9-B42E-3190ACA382C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14169,7 +14169,7 @@
         <xdr:cNvPr id="199" name="文字方塊 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BFD789-6E65-4144-AE6E-428DEFD6CC21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2721D1-5614-4646-B7F3-95E67186594D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14267,7 +14267,7 @@
         <xdr:cNvPr id="200" name="文字方塊 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723901BE-9388-4472-9AB0-A571FAE22C96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2E5E2D-6EF4-47AE-80F9-E804A5ABC724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14365,7 +14365,7 @@
         <xdr:cNvPr id="201" name="文字方塊 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6D5B1C-4C11-42D5-AA88-F61919B18116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C392F5-7B87-466F-92A1-B7E78B84B253}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14463,7 +14463,7 @@
         <xdr:cNvPr id="202" name="文字方塊 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C71E6DD-0EBD-41A4-BDFE-A83366C61DCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201C3D79-3E1B-480F-B67C-F845A7C93F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14561,7 +14561,7 @@
         <xdr:cNvPr id="203" name="直線接點 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D740DA3-04AA-4F9D-A2AF-621BC0BBAFF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D60F90-B019-4917-A4AA-B1187A2C5578}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14616,7 +14616,7 @@
         <xdr:cNvPr id="204" name="直線接點 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9F64A2-E42D-4496-A14C-B3F5DDE72290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B0218A-EEF4-4D7A-8333-62F34D42D9A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14671,7 +14671,7 @@
         <xdr:cNvPr id="205" name="直線接點 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80E3549-E2E0-458A-A99E-4715018142FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B291E5-9776-4161-B6BE-AB724620D98E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14726,7 +14726,7 @@
         <xdr:cNvPr id="206" name="弧形 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648EE8DD-7909-45BB-9EB9-ABE72F5AE627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9DEB21-C35D-43C5-95A6-35A5A909DD5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14792,7 +14792,7 @@
         <xdr:cNvPr id="207" name="弧形 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D715499-5DA9-4169-B3BB-FB86B88B0F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFFCADC-DB16-4061-8DD8-E8191FB4851B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14858,7 +14858,7 @@
         <xdr:cNvPr id="208" name="文字方塊 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF0C95F-DB06-43FD-A88A-D2CB32118CF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB55F0A-0F6E-4173-B25F-ADD3B7F1F13C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14956,7 +14956,7 @@
         <xdr:cNvPr id="209" name="文字方塊 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD83E1B2-043F-4E75-A83A-553105ACE7C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EAB271-950D-4B7E-9D38-CDA6A4E53C10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15054,7 +15054,7 @@
         <xdr:cNvPr id="210" name="文字方塊 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BBD1B4-ACF8-4964-B44D-A34E53D1F77F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C64EBCB-F57B-47E4-93BF-BF9F6B1A5E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15152,7 +15152,7 @@
         <xdr:cNvPr id="211" name="文字方塊 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACB35DA-8CD2-400C-A53B-77DFD7BFF895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69632690-5023-498F-9124-1881B6C1E5C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15250,7 +15250,7 @@
         <xdr:cNvPr id="212" name="文字方塊 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D3CED9-5F78-4DBE-8726-D751FE6B80E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF72964-58B2-4523-9A54-4657234AE158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15348,7 +15348,7 @@
         <xdr:cNvPr id="213" name="直線接點 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6A8C74-EDBB-4493-9288-5DDF552B781C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED65217A-C760-47BD-8131-29B5C4B9BF2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15403,7 +15403,7 @@
         <xdr:cNvPr id="214" name="直線接點 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6EB7AC-6412-4B0A-B4AD-3FA68D4F18CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B955028-196F-4420-99B5-AA5610A897A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15458,7 +15458,7 @@
         <xdr:cNvPr id="215" name="直線接點 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BB5770-4E51-4296-BA19-0D575668BED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A33D19E-F049-460D-A610-E75653A05D1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15513,7 +15513,7 @@
         <xdr:cNvPr id="216" name="直線接點 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D945000A-7E59-4B5D-B809-6C386E280A2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219EDF0D-68F9-4034-880D-A4902CA7A3DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15568,7 +15568,7 @@
         <xdr:cNvPr id="217" name="直線接點 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE8A24E-ED20-4351-A589-F79F2A04BDEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E11B8D3-A4E9-45A1-821B-8E934CC1F6A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15623,7 +15623,7 @@
         <xdr:cNvPr id="218" name="直線接點 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB535252-2080-4982-A79A-8257EA671129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D21CB4-C22E-4039-9707-A4E18C05D89E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15678,7 +15678,7 @@
         <xdr:cNvPr id="219" name="弧形 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE55EE-B920-4FA1-9314-91292766FDAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77FBA2E-9BB7-436F-9B6D-F13D0AB95A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15744,7 +15744,7 @@
         <xdr:cNvPr id="220" name="弧形 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77AF033D-299B-4E88-8682-3E6A985C2EFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E6B707-DB75-4A00-A906-EB630ED94881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15810,7 +15810,7 @@
         <xdr:cNvPr id="221" name="弧形 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33515AC-9B9F-43DC-AF87-3CE48533593A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04492A-8571-424C-A5E9-FA3D05F75D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15876,7 +15876,7 @@
         <xdr:cNvPr id="222" name="弧形 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA699927-A3BD-4808-8D7C-247B4178FC9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944D3BF-0426-43C9-AB83-FF85E1A80C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15942,7 +15942,7 @@
         <xdr:cNvPr id="223" name="弧形 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F978C499-7C29-42E7-830A-1E6B0DE7B341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81221C9D-906D-4865-A971-74E603F859E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16008,7 +16008,7 @@
         <xdr:cNvPr id="224" name="文字方塊 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3393F7E8-5843-41DB-9685-C73D2761795D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9648339C-6C1E-4EC4-AA5F-3A2E6CD4C44C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16106,7 +16106,7 @@
         <xdr:cNvPr id="225" name="文字方塊 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCFAAF5-F97A-4DF7-8701-FF6AC2FADB31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1E5BC6-C839-4C72-A89D-E67329B74384}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16204,7 +16204,7 @@
         <xdr:cNvPr id="226" name="文字方塊 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C51C130-BD99-47AB-869B-8988D21898ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B28A991-5C01-48F0-B9D6-3799484BE40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16302,7 +16302,7 @@
         <xdr:cNvPr id="227" name="文字方塊 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347BBCBB-5DB9-4167-971F-DBFAF0C3DF26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72734FA6-9C6A-48D8-B27D-6AA459DF4F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16400,7 +16400,7 @@
         <xdr:cNvPr id="228" name="文字方塊 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FDFBC9-E647-4706-B778-292B65EA3411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59473C21-D601-4257-B444-A6B1EB12CDD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16498,7 +16498,7 @@
         <xdr:cNvPr id="229" name="直線接點 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99A146D-68F3-45EC-8D9F-E2CDCC94494D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB5AC96-4C08-41A3-B16A-8DE57336CF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16553,7 +16553,7 @@
         <xdr:cNvPr id="230" name="直線接點 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C61B70-4160-4AD3-ACE7-3DC10D9B7023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55277959-7C09-4858-A11D-4A3A606B3702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16608,7 +16608,7 @@
         <xdr:cNvPr id="231" name="直線接點 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF1388C-2FE3-445A-BE09-55D82D1B1763}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2278991B-3EFD-4ACC-8C6B-575A4B95296F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16663,7 +16663,7 @@
         <xdr:cNvPr id="232" name="直線接點 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8C276A-77BA-467A-9CA2-066E5BB546C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A54AB3D-C7B4-431A-90CD-521A6B5CC3BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16718,7 +16718,7 @@
         <xdr:cNvPr id="233" name="直線接點 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30408127-5165-484F-BA8C-E3C42927D6A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2478B40E-721B-4F6B-90C9-B86009E357D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16773,7 +16773,7 @@
         <xdr:cNvPr id="234" name="直線接點 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806BFFA7-2723-4732-8393-195E53D0D959}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94577201-65A4-454E-ADDD-F080AD897D65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16828,7 +16828,7 @@
         <xdr:cNvPr id="235" name="弧形 234">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD5F096-EBE3-413D-A5C1-B16F598A439A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1AE82A-3780-44D8-B5BD-1A75677777C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16894,7 +16894,7 @@
         <xdr:cNvPr id="236" name="弧形 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F22A9F7-87D3-4B22-9679-D9605A873496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44742B6-41F4-46A7-9E69-DB86403DEEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16960,7 +16960,7 @@
         <xdr:cNvPr id="237" name="弧形 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A3967-854F-4C7B-A2E5-747ADC638ADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9487EF30-0E0D-44D5-ABF7-326285190598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17026,7 +17026,7 @@
         <xdr:cNvPr id="238" name="弧形 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A94185-E043-4B24-AA24-686A1CA7930D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DC70E5-6E25-4AC7-9A00-5371A39489E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17092,7 +17092,7 @@
         <xdr:cNvPr id="239" name="弧形 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD7FAE7-45AF-468C-B6BB-341F8C639D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ABD31F-352C-49F2-810D-C500796055CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17158,7 +17158,7 @@
         <xdr:cNvPr id="240" name="文字方塊 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA363144-6D1B-400B-8F07-B7C3276A9801}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7073B54B-713B-454F-A24B-C1B2E4B15A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17256,7 +17256,7 @@
         <xdr:cNvPr id="241" name="文字方塊 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21354654-6A20-4967-AE17-B20AA9D64DE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C88F72C-1CE3-4072-AAD9-11A688A0A27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17354,7 +17354,7 @@
         <xdr:cNvPr id="242" name="文字方塊 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F13CD9D-BE99-4F85-977E-C84EA3E0A6F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD22F469-DD26-4659-9806-4151DDDDF6A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17452,7 +17452,7 @@
         <xdr:cNvPr id="243" name="文字方塊 242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E21D1F8-D254-489F-A94F-B1F1F1F9F7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E58028-DD61-4E17-9611-4416040F1C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17550,7 +17550,7 @@
         <xdr:cNvPr id="244" name="文字方塊 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD96C13-B0EF-4864-BAFD-399B2AEFC28B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F6D391-3DAC-47B7-AF87-A61DB91BD1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17648,7 +17648,7 @@
         <xdr:cNvPr id="245" name="直線接點 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81F9CD3-A93C-4136-A1EE-53389B03D416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58E4430-B836-4183-B0E6-2F6717DDB21A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17703,7 +17703,7 @@
         <xdr:cNvPr id="246" name="直線接點 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD9E9B4-CD97-49A3-BCD6-988EF590F3E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957E0A00-52E3-47A4-A3DA-1684594AC383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17758,7 +17758,7 @@
         <xdr:cNvPr id="247" name="直線接點 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F154301-758E-4F35-A02E-57BF0827BE91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBA8E03-4F1A-4484-9911-B0A725B160E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17813,7 +17813,7 @@
         <xdr:cNvPr id="248" name="直線接點 247">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CE7442-6AB1-4748-9F5D-A6D9F080D0C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF353ED7-DB57-42DE-981D-02FC4B81DEC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17868,7 +17868,7 @@
         <xdr:cNvPr id="249" name="弧形 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B68F3A0-2176-4B92-B989-859680F9F06F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD6D9EE-EE18-4C0C-AC25-4A80893AB70C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17934,7 +17934,7 @@
         <xdr:cNvPr id="250" name="弧形 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B33540-2514-4532-93CD-C51EAD45F2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35C1664-3687-4F44-93F4-F91A4DA87F59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18000,7 +18000,7 @@
         <xdr:cNvPr id="251" name="文字方塊 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F521D6CB-7003-41A4-987A-40E6085D61F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B815C4EF-EBA9-46E0-9F9B-56DCE2FAD9E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18098,7 +18098,7 @@
         <xdr:cNvPr id="252" name="文字方塊 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD23C5-2A8F-4E27-830F-01CE767CE6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0C6D54-46CF-40E2-A208-BF3CDF0407F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18196,7 +18196,7 @@
         <xdr:cNvPr id="253" name="文字方塊 252">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5353CAE4-459A-45E1-B00E-8EF66A705F42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA45B8F-8250-4B98-A90E-9D3C501FAE0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18294,7 +18294,7 @@
         <xdr:cNvPr id="254" name="文字方塊 253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775B2E3D-1066-422F-B3C5-A27725C7ED64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A36A24-0C59-47E7-B4E7-CEEE12E17562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18392,7 +18392,7 @@
         <xdr:cNvPr id="255" name="直線接點 254">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AC04A6-8C72-4345-A9FA-A4FF8B90337D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF63BD71-2601-4896-97F6-FB09BF7E3885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18447,7 +18447,7 @@
         <xdr:cNvPr id="256" name="直線接點 255">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D081292F-2566-45B3-8E81-A3B8857B53FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A21594-C479-41DC-9B14-8EF3978B2BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18502,7 +18502,7 @@
         <xdr:cNvPr id="257" name="直線接點 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F4BC4F-E8D1-4DF7-897B-7A45A91F49D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A48E3F-2FD1-41E5-BE3B-703BAC583B5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18557,7 +18557,7 @@
         <xdr:cNvPr id="258" name="直線接點 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E04A0B1-2220-4FF5-86D9-F02DFF95E458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF89D2B-109C-4591-AE03-057CD264DB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18612,7 +18612,7 @@
         <xdr:cNvPr id="259" name="直線接點 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1B6B9C-2D92-47D9-AB65-E2E9E9BB52C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6723D59A-4AE3-4888-8131-1B367E324610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18667,7 +18667,7 @@
         <xdr:cNvPr id="260" name="弧形 259">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17937706-E4BF-47A1-AE9A-2043A351CA07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7329F7B1-B494-41F3-BE2D-E8AA67EC510B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18733,7 +18733,7 @@
         <xdr:cNvPr id="261" name="弧形 260">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85438765-3F4D-4509-A78D-39169448B6B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFA14A6-FBEB-4844-97B6-E0A13378F45D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18799,7 +18799,7 @@
         <xdr:cNvPr id="262" name="文字方塊 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6471D04-40C8-4908-AE6D-DD802CCC7948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2636A22-684D-41B9-8B31-253AB5A56565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18897,7 +18897,7 @@
         <xdr:cNvPr id="263" name="文字方塊 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F95F0EC-FFCA-49AD-BDE7-98B01EF77B5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874A7564-7F03-4071-AA30-9D6326FE136D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18995,7 +18995,7 @@
         <xdr:cNvPr id="264" name="文字方塊 263">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5841C01-B563-413D-AEAC-470DF743D1A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA21ED-E3AA-4146-ABF7-7C67C3B94CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19093,7 +19093,7 @@
         <xdr:cNvPr id="265" name="文字方塊 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC7EC84-E44D-4294-B86B-733A391B40E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD75A32-F2CF-4A5D-AF2A-39934C314718}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19191,7 +19191,7 @@
         <xdr:cNvPr id="266" name="文字方塊 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DFCD38-EC25-4CA0-A755-4CD8FF61CEAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCC5EAD-0C58-4258-9177-89BA0BA12587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19289,7 +19289,7 @@
         <xdr:cNvPr id="267" name="直線接點 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ACF708-11B5-4DE3-BD64-DC96A88E4985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780EDED5-96A4-46CB-B5F6-D8DFBA3665FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19344,7 +19344,7 @@
         <xdr:cNvPr id="268" name="直線接點 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D764C499-A13B-4776-86A0-A69BD2184C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028F3BC4-1ED0-4EC4-81F5-5A1D93869469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,7 +19399,7 @@
         <xdr:cNvPr id="269" name="直線接點 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81DFF42-DE29-492A-88EE-6A310D1F08AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414D9A80-A8E1-4888-BB46-CAFC44C0E661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19454,7 +19454,7 @@
         <xdr:cNvPr id="270" name="直線接點 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20B4E25-8A6C-4575-8B1A-4F5F706C92F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DA5179-C0ED-4A92-B781-27EEF9774606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19509,7 +19509,7 @@
         <xdr:cNvPr id="271" name="直線接點 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C80EE23-CB7E-43F9-ACB7-A628C9CAD053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFBFCD4-078F-4E1C-A705-21C275553943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19564,7 +19564,7 @@
         <xdr:cNvPr id="272" name="弧形 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90A2C1C-B318-4CB6-BB02-5E0D1D1F5215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ECF357-339B-4519-AC1D-206263CE8666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19630,7 +19630,7 @@
         <xdr:cNvPr id="273" name="弧形 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4AB035-FF16-4446-AE66-663D026F8F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CAAA33-7B26-4C8A-9C6C-9FFCC7E887B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19696,7 +19696,7 @@
         <xdr:cNvPr id="274" name="文字方塊 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4E6A25-4C8E-4774-8A0B-3D91E336DC9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D50ADF2-7FCC-4862-842A-BB8443824B28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19794,7 +19794,7 @@
         <xdr:cNvPr id="275" name="文字方塊 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2482E13-046C-49CF-8580-DEF319681A6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3A84C2-E51F-4162-887F-CE85DB2942BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19892,7 +19892,7 @@
         <xdr:cNvPr id="276" name="文字方塊 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03A409D-99C6-4A20-B9B2-2A997E94EF4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B8A4C3-7C05-46EB-B1DF-2D8CAC78E891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19990,7 +19990,7 @@
         <xdr:cNvPr id="277" name="文字方塊 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A869AB18-64FA-40A7-B826-4A5CC42341B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDABEA99-6F9D-4D27-B842-FC0AA581CB70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20088,7 +20088,7 @@
         <xdr:cNvPr id="278" name="文字方塊 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20968515-D604-4D77-982B-666C493BEAA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8912CBF-21BB-4442-8DF4-E43EFB8CA8A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20186,7 +20186,7 @@
         <xdr:cNvPr id="279" name="直線接點 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162E2E36-992E-4840-AF95-C82B031E6D1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6A1F44-6C97-4D11-85E4-D413B1F9BC20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20241,7 +20241,7 @@
         <xdr:cNvPr id="280" name="直線接點 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8311574-6F9C-499F-B525-5A39D89EEECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01020813-F977-4241-9FFB-7B1FC1A9C8E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20296,7 +20296,7 @@
         <xdr:cNvPr id="281" name="直線接點 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF398AA2-300F-4978-B9D4-A8C27DF0187A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F1848E-97DA-447F-A3D9-CD10F33401ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20351,7 +20351,7 @@
         <xdr:cNvPr id="282" name="弧形 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FC4877-89BF-429C-897F-6A2A5F7DE853}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19511700-CBE6-4D3D-9FAD-BE75FA7214A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20417,7 +20417,7 @@
         <xdr:cNvPr id="283" name="弧形 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20BC63C-8DDA-4270-A6E0-B515DFE774E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC91AEC2-DEAF-4EBD-906F-7C534EB99B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20483,7 +20483,7 @@
         <xdr:cNvPr id="284" name="文字方塊 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A4AD3A-F240-4748-A494-84BEFF6FA913}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2102EAF-88D3-40CC-B2B6-9C7CE381751E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20581,7 +20581,7 @@
         <xdr:cNvPr id="285" name="文字方塊 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6834BE6A-4BE8-4E05-B1B5-C8ADA45F9E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB17AFC5-F732-43A6-B5B9-8297E8EFE79C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20679,7 +20679,7 @@
         <xdr:cNvPr id="286" name="文字方塊 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A3635C-DA59-4EE9-9473-A72BB4C07A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB656D8-54C1-4232-91C9-73115F80CAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20777,7 +20777,7 @@
         <xdr:cNvPr id="287" name="文字方塊 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C10184-58DF-41F3-A94E-8809A4C490D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8918FBD0-8FCA-4539-9C78-1E9953ED5279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20875,7 +20875,7 @@
         <xdr:cNvPr id="288" name="文字方塊 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C83A606-A3F7-4A1A-A55F-41BA007ABE93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B22E0E0-3F39-4781-9528-9ACA083744AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20973,7 +20973,7 @@
         <xdr:cNvPr id="289" name="直線接點 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DF7A1D-DC35-469E-B786-07F8BA04FBBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16547C5D-8564-4EA1-98E8-9A52ACC82A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21028,7 +21028,7 @@
         <xdr:cNvPr id="290" name="直線接點 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21A4979-6129-4C7E-9450-F0694418B8FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BFA9A3-5E08-4A55-B31B-08D784C1221E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21083,7 +21083,7 @@
         <xdr:cNvPr id="291" name="直線接點 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ADC174-7649-4DAA-BA47-7868BB4A62C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB95C868-0D55-40A0-B4F9-991A9D4C9F2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21138,7 +21138,7 @@
         <xdr:cNvPr id="292" name="直線接點 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48EE96A-0A52-4FAC-A16B-E402452F918D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0760DFFA-E48B-46D8-B233-67BA1FF221C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21193,7 +21193,7 @@
         <xdr:cNvPr id="293" name="弧形 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA49C66-E12C-44CE-A00B-5997F530360D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9BDD39-5309-40DE-A753-AEF0A7F552E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21259,7 +21259,7 @@
         <xdr:cNvPr id="294" name="弧形 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C1ADD4-73A3-4E3E-A6E7-8F1893DF6BCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35C73ED-8360-4D4E-A5E1-BFA837B3C078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21325,7 +21325,7 @@
         <xdr:cNvPr id="295" name="弧形 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B96731B-5B53-4F6B-A7CC-0E8E81329DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6738A01E-D435-4AD7-9B2C-6749FEDEBEEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21391,7 +21391,7 @@
         <xdr:cNvPr id="296" name="文字方塊 295">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA3C203-2510-473E-A65B-0654DD790432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0715E044-643B-496B-97C8-CE17D1FFF1B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21489,7 +21489,7 @@
         <xdr:cNvPr id="297" name="文字方塊 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4DDC9F-1AA7-4265-B229-AF86A6C56EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CDAF65-23FF-4F4D-A290-A7FA63893CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21587,7 +21587,7 @@
         <xdr:cNvPr id="298" name="文字方塊 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33B5BF7-A7F8-411D-9E73-2D78A1BEBFC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE57A2B-AAEF-4138-80A8-BD4280E5C932}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21685,7 +21685,7 @@
         <xdr:cNvPr id="299" name="文字方塊 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A94571-E3DE-40AD-8CFC-66180C7A64B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1800846-EFCC-475B-AB01-E538F921D102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21783,7 +21783,7 @@
         <xdr:cNvPr id="300" name="直線接點 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B71015-1EE9-44AE-96AB-8EDDD166CB3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE007BC-3D36-4129-AF8C-F8EABD6A2097}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21838,7 +21838,7 @@
         <xdr:cNvPr id="301" name="直線接點 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD08DDB5-F023-4765-A944-AEB69E4715BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5709B3-5453-4DFD-8C1B-0170EE1BD923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21893,7 +21893,7 @@
         <xdr:cNvPr id="302" name="直線接點 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA408F62-2718-4902-A571-86D06DA68558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C42DA1-516E-45E8-B06A-D961B76A14ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21948,7 +21948,7 @@
         <xdr:cNvPr id="303" name="弧形 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8812D3-DA81-4B8A-BB55-020F72D76B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DB90C6-692C-4B8B-8F22-3E5494A7F884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22014,7 +22014,7 @@
         <xdr:cNvPr id="304" name="弧形 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5565240E-7D4D-44E9-B45F-0ED1480EC617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80B65D3-B69A-4FBE-8F06-A7EFCF8187CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22080,7 +22080,7 @@
         <xdr:cNvPr id="305" name="文字方塊 304">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4135DD9F-FC67-450B-95CC-94EB5ED4C1A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE4C65-FACA-4C04-B357-9345183C9DB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22178,7 +22178,7 @@
         <xdr:cNvPr id="306" name="文字方塊 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C27E5AE-159D-4CEF-9576-A2C877211DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB216BD2-4067-466F-8487-B915CEC1F4B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22276,7 +22276,7 @@
         <xdr:cNvPr id="307" name="文字方塊 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB898F8-D21D-4971-B733-A24A3BCC2ED2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5833CA2F-DA12-43BA-A5E3-58F8E55D1AD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22374,7 +22374,7 @@
         <xdr:cNvPr id="308" name="文字方塊 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE1C98A-C3E2-4A26-A34C-75B78B8625BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F8F13-1196-451E-BEDD-322320C213A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22472,7 +22472,7 @@
         <xdr:cNvPr id="309" name="文字方塊 308">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83192218-B1AF-434A-BB86-00F25C23F931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CC2213-CF5B-49B9-ACC7-BB6BB010ACCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22570,7 +22570,7 @@
         <xdr:cNvPr id="310" name="直線接點 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EB51D8-32E5-4DA4-8465-A1802D1C923A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138B0058-7FCB-499C-98DF-2C6BF83BF06B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22625,7 +22625,7 @@
         <xdr:cNvPr id="311" name="直線接點 310">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D965CD6F-2CBD-474A-A18C-12D80FE8F42F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6179FC8-1EDF-424E-B851-52407754230F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22680,7 +22680,7 @@
         <xdr:cNvPr id="312" name="直線接點 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7389F535-1C36-468E-A405-8C7787DF2D3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAFC023-1F65-4625-AB3D-4D0C8448893B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22735,7 +22735,7 @@
         <xdr:cNvPr id="313" name="弧形 312">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1275C96-ECEF-44D2-BA34-441FE155F3B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A507D6F4-18E3-4050-93C5-76B21D05853F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22801,7 +22801,7 @@
         <xdr:cNvPr id="314" name="弧形 313">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ADB125-E2F7-4DA6-91F6-5700A09689E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E521D3CC-2C91-4B96-9A94-E3E06DB760B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22867,7 +22867,7 @@
         <xdr:cNvPr id="315" name="文字方塊 314">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C0E95D-13A3-4BD3-9AF3-7C789CA59D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C98E0-B320-4C92-B8E8-51F3F45FE0A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22965,7 +22965,7 @@
         <xdr:cNvPr id="316" name="文字方塊 315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB16001-9997-41E2-B29D-B0CF579F8271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9E99AA-E12F-4613-A894-54D20C747500}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23063,7 +23063,7 @@
         <xdr:cNvPr id="317" name="文字方塊 316">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48DAD29-45B5-47C1-B4A4-FA7B47559A5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF2C70-7D41-4316-B58F-7F9DB1C98093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23161,7 +23161,7 @@
         <xdr:cNvPr id="318" name="文字方塊 317">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FFB210-B781-4300-B511-27CA66889DCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19CAB80-8B81-48A3-9695-D7961EE9BBD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23259,7 +23259,7 @@
         <xdr:cNvPr id="319" name="文字方塊 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC17DB-C85A-43C6-B8B1-AD05B08C8CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0203EE0A-FE23-42EB-9366-885F5EF7A36A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23357,7 +23357,7 @@
         <xdr:cNvPr id="320" name="直線接點 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C8AEEE-D18C-49C5-8B76-D2505B152A4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B758-F758-455D-9E37-51F761A7A707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23412,7 +23412,7 @@
         <xdr:cNvPr id="321" name="直線接點 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4611954A-6DEE-4114-AF05-A8B4696F6A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AA1327-6C97-4C32-8B21-DC05B626E5AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23467,7 +23467,7 @@
         <xdr:cNvPr id="322" name="直線接點 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C2F74-8772-491E-AF89-2C559DCAEB43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F4A86-36A3-4FFC-ADD4-04B47875C37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23522,7 +23522,7 @@
         <xdr:cNvPr id="323" name="弧形 322">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7035BBAD-0FAE-4141-B832-6FD8129E9B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFD93EA-880E-4CB8-8624-8B56E250E322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23588,7 +23588,7 @@
         <xdr:cNvPr id="324" name="弧形 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6103FD71-3FD4-4B33-AA8A-171767EDE639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871D4D7D-D463-4F67-8D26-64C7D42BDE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23654,7 +23654,7 @@
         <xdr:cNvPr id="325" name="文字方塊 324">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB44A9A9-1DD5-4130-9A25-B16BDCDD976E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D960CD67-0CAA-45E3-82CD-EEFE545F6751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23752,7 +23752,7 @@
         <xdr:cNvPr id="326" name="文字方塊 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10A8C3B-65DF-4702-BF2F-CA67FAE381BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A17E801-C3A1-455C-89F6-2416AFE70252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23850,7 +23850,7 @@
         <xdr:cNvPr id="327" name="文字方塊 326">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D185A5B-DC11-42AB-93CC-2D61C028F361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1C1189-864D-4C19-B23F-69595DE16122}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23948,7 +23948,7 @@
         <xdr:cNvPr id="328" name="文字方塊 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5257D03E-3C07-4A98-999D-2F07B312E748}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5065A6-C9CD-455B-81A8-391B26C6A154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24046,7 +24046,7 @@
         <xdr:cNvPr id="329" name="文字方塊 328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA5D96A-C546-486B-BC50-3A0D398987DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2ACE97-C658-4AB7-A3B8-9CC6FF070498}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24144,7 +24144,7 @@
         <xdr:cNvPr id="330" name="直線接點 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6FD163-0225-4C5B-90BE-BCA55799ABBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3C48A0-5213-4724-8CDD-991D80FD8002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24199,7 +24199,7 @@
         <xdr:cNvPr id="331" name="直線接點 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97641BA2-7DEC-42E0-9242-5D271834B56C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DE0DBF-C5A0-40A2-A421-5ABA5DCB4DC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24254,7 +24254,7 @@
         <xdr:cNvPr id="332" name="直線接點 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89CD191-878A-43F0-B9C4-D781EC25786E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5847A88D-F553-41A0-9405-2F7505EE70CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24309,7 +24309,7 @@
         <xdr:cNvPr id="333" name="弧形 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE28EA4C-FCDA-44E5-B62B-B2EE0B8E87EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929EE0E7-8FF1-4550-BEF3-B86593C13000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24375,7 +24375,7 @@
         <xdr:cNvPr id="334" name="弧形 333">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC71BB1-5D79-441A-85C1-1A5F10E74678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F86E44-E8F8-4C66-B94C-E52E8C1F4C70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24441,7 +24441,7 @@
         <xdr:cNvPr id="335" name="文字方塊 334">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0250B9D7-3966-4B6C-A59F-E3E95A6CB2CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2370812-A2E3-4223-9EAE-DDD26F7DF86E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24539,7 +24539,7 @@
         <xdr:cNvPr id="336" name="文字方塊 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33ADA871-0D7D-439F-8EA5-5C72BB8FD4C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8FE6FB-741C-4A2C-8065-80839A5C6160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24637,7 +24637,7 @@
         <xdr:cNvPr id="337" name="文字方塊 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846604AD-5984-400F-8028-41BA3CF51B08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF76851-B254-4647-B102-87103C0069E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24735,7 +24735,7 @@
         <xdr:cNvPr id="338" name="文字方塊 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D879011-E9CA-49E5-A465-87F0F119D3E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB4F85-40AF-4CD4-868E-DBE50180CB0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24833,7 +24833,7 @@
         <xdr:cNvPr id="339" name="文字方塊 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D26DE55-FBB4-47B3-810F-AB63294290C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124C5C40-B0CD-4AC2-8069-6EF0240309C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24931,7 +24931,7 @@
         <xdr:cNvPr id="340" name="直線接點 339">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504E9391-9D3D-4775-8CA8-2F454DE6428D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C11D98-C499-4A60-8ADB-A6B8641E77F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24986,7 +24986,7 @@
         <xdr:cNvPr id="341" name="文字方塊 340">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B68EECF-D1B7-4D97-9C15-EFA8190526E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FCBD63-F024-43C2-949C-D6967845206D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25084,7 +25084,7 @@
         <xdr:cNvPr id="342" name="直線接點 341">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45748ACD-4122-4F4E-A3B9-77906DD3B517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE30D4C-8E63-4BF1-9B6A-F7CDCBECAB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25139,7 +25139,7 @@
         <xdr:cNvPr id="343" name="直線接點 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520CF88C-F0CA-496E-A481-8827DD3BADB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B562113-0FD2-4000-8522-C2909B5320BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25194,7 +25194,7 @@
         <xdr:cNvPr id="344" name="直線接點 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2B659D-9851-4F68-A0DC-20F9E11448B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6ED9F8-FA99-45A0-9D52-9379105D078D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25249,7 +25249,7 @@
         <xdr:cNvPr id="345" name="直線接點 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D9B21C-F029-43B1-8453-85C9294CBD9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376CB1A5-A803-4445-ACDA-E8D430F0A086}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25304,7 +25304,7 @@
         <xdr:cNvPr id="346" name="直線接點 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E51093-1B22-4AD7-B1BD-003B38575BB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A1A5C6-D83B-4C51-8CBD-C60D9B3AA15E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25359,7 +25359,7 @@
         <xdr:cNvPr id="347" name="弧形 346">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63E3E57-D8D3-4B85-8AB8-ABD507D54214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB3FDD-251F-4C51-8791-D61FD9E28C6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25425,7 +25425,7 @@
         <xdr:cNvPr id="348" name="弧形 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05C253A-AA20-41A7-A44C-A044ED89C5F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D866735-18B6-473E-A50D-B9A0A4B75E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25491,7 +25491,7 @@
         <xdr:cNvPr id="349" name="弧形 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C84DED-ED50-4E95-9D5B-EAA626D9CA98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C2CCC-207A-4DEE-AC3F-0C16D112CA2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25557,7 +25557,7 @@
         <xdr:cNvPr id="350" name="弧形 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4425666-48EC-4A7C-A140-CB47231AC7FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D33DDB-BCD2-4E45-B34D-7D2F62FACC2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25623,7 +25623,7 @@
         <xdr:cNvPr id="351" name="文字方塊 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCA439C-4523-458D-B186-C07394044837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310DCD27-5D28-4CA9-955C-14805469768F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25721,7 +25721,7 @@
         <xdr:cNvPr id="352" name="文字方塊 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A407D804-4490-4F65-AEC7-41C2FE31AEFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BA94DD-5103-400C-8B5B-CD8937CBC6CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25819,7 +25819,7 @@
         <xdr:cNvPr id="353" name="文字方塊 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08606C6-6220-4336-89A9-6AEE0D93E6CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D6AA95-515C-44BA-B7C8-56780C70AD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25917,7 +25917,7 @@
         <xdr:cNvPr id="354" name="文字方塊 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FEFAC0-4516-47D8-ACBF-471880E7AAEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BF790E-815F-4EEE-950D-469C0F3EFEF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26015,7 +26015,7 @@
         <xdr:cNvPr id="355" name="文字方塊 354">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FF9B11-9F94-420B-AA6E-F634620EC9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CE2C02-FFB0-428A-80CD-083ADB891373}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26113,7 +26113,7 @@
         <xdr:cNvPr id="356" name="文字方塊 355">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0CAC50-9579-4548-9B31-C56C565A9D95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DECC1A4-4567-4DFD-A182-25A3A25ECE33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26211,7 +26211,7 @@
         <xdr:cNvPr id="357" name="直線接點 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB265CB-E14D-4D4D-8B23-409E3A126690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A56D1A6-C532-44E3-A641-0E7E28EA771D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26266,7 +26266,7 @@
         <xdr:cNvPr id="358" name="直線接點 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA3152F-D75D-4C20-A23F-DDE012C9D9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAC12DE-D25D-4551-995F-699CEC03AB98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26321,7 +26321,7 @@
         <xdr:cNvPr id="359" name="直線接點 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6909C6F-9D16-4A7D-955C-393892EAA12D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEE7FD1-65AD-4053-B6DF-B9A70232551D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26376,7 +26376,7 @@
         <xdr:cNvPr id="360" name="直線接點 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A14F80-72E6-411A-93DC-102757C119E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F36B36-9383-49B7-89FD-2AEDC45DF16F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26431,7 +26431,7 @@
         <xdr:cNvPr id="361" name="弧形 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3B786C-A122-499C-997B-58319BC09422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98E7F79-4EEF-43AB-8D08-BF54F1BEDED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26497,7 +26497,7 @@
         <xdr:cNvPr id="362" name="弧形 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B41D95-EC88-49B0-9BAD-696740DBC436}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A089360-386A-4C45-8329-11678818A5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26563,7 +26563,7 @@
         <xdr:cNvPr id="363" name="弧形 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F85A594-2745-425F-9298-C6D9DB1751E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88106584-99F9-4F3C-BF87-449DA46DF0FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26629,7 +26629,7 @@
         <xdr:cNvPr id="364" name="文字方塊 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFDCD7D-8394-4E67-9EE2-A804D8E614DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86989EBE-988B-466B-9B6B-E66FCA27294C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26727,7 +26727,7 @@
         <xdr:cNvPr id="365" name="文字方塊 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95385AF-9730-4482-BD6B-CE91B6017ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B8993C-8B49-40C4-B8B7-142AD3B8F60D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26825,7 +26825,7 @@
         <xdr:cNvPr id="366" name="文字方塊 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9DD5E1-013C-4D04-80A5-6397D8186E35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8366DA5B-F2CF-4844-B4B8-96111812AE3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26923,7 +26923,7 @@
         <xdr:cNvPr id="367" name="文字方塊 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F1E513-8ADB-44BC-94A2-D2CC7E7D3282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570EF019-227C-48B2-8177-29C00EF41309}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27021,7 +27021,7 @@
         <xdr:cNvPr id="368" name="文字方塊 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA4CE84-644C-4522-A9A9-03C4882A7E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CBAE4-9B62-4E9F-99E0-C62B2C5F3CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27119,7 +27119,7 @@
         <xdr:cNvPr id="369" name="文字方塊 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9DF5FF-7DE1-4414-9FD4-7A87632CEAF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF273094-ECEC-4BA0-B7EA-AFF70EB552F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27217,7 +27217,7 @@
         <xdr:cNvPr id="370" name="文字方塊 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBC244C-9D39-4C0E-BF05-E93C0A87552B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64913EDF-59D5-4788-91E3-EB8E761127B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28041,7 +28041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B393DFDC-6A71-4AFD-8C1F-30F0653F53DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AF4667-DE9B-4A09-BD98-2887C9435A22}">
   <dimension ref="A1:AP48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/R2/2021-0421 檢查 Excel Block/RCAD-鋼筋型文對照表-圖塊SigoAva-Mu-MEI-AVA-20210412-鋼筋計料.xlsx
+++ b/R2/2021-0421 檢查 Excel Block/RCAD-鋼筋型文對照表-圖塊SigoAva-Mu-MEI-AVA-20210412-鋼筋計料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\autohotkey\R2\2021-0421 檢查 Excel Block\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BA74A0-78A1-442D-844B-22384D3085EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C178862-0108-4DEC-A197-E11EEAD637A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3225" yWindow="3225" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
         <xdr:cNvPr id="2" name="直線接點 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E17834D-3A48-4C89-AE23-D459C22A14E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45851F61-5ADC-4251-B55F-CEEC608FCAEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
         <xdr:cNvPr id="3" name="直線接點 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D07A9B-BEBB-4015-B09E-9182DD8D4AA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2977B7-91C4-419D-A856-46E02F8DC17E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="4" name="直線接點 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0625C460-0AA7-4C5D-9EF1-BB889C866047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E212A29-042B-4527-A2E7-4560D2A6FF14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +970,7 @@
         <xdr:cNvPr id="5" name="直線接點 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EEA085-65A5-461D-9599-19119174789A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39618157-5705-4056-83D4-57A03B9A59F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1025,7 @@
         <xdr:cNvPr id="6" name="直線接點 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F21882-7D74-4A43-B80D-989D3BF91265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA2320-C5CC-4839-8662-836CC4C52B3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1080,7 @@
         <xdr:cNvPr id="7" name="直線接點 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621DDF31-6B6C-4B6A-A70A-0355DC076220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED6FBFC-3647-482C-BD74-8063285937A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
         <xdr:cNvPr id="8" name="直線接點 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0310168E-0939-444A-A7FC-1A999702947E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838BEE2F-FBC2-409A-9E99-281837EC3E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1190,7 @@
         <xdr:cNvPr id="9" name="直線接點 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8785742D-EDCC-4B84-BC42-FB9404594603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885E719C-287C-44AE-A706-3F1267AB0608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,13 +1230,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>68195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>201276</xdr:rowOff>
     </xdr:to>
@@ -1245,7 +1245,7 @@
         <xdr:cNvPr id="10" name="文字方塊 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35DCE3F-4B60-46E5-B014-A48A92C0418C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22734237-E3AB-4352-8E26-5ADC547622FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="877820"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="877820"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,7 +1304,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1313,7 +1313,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1328,13 +1328,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>221951</xdr:colOff>
+      <xdr:colOff>224003</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>284963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>374685</xdr:colOff>
+      <xdr:colOff>372633</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>395826</xdr:rowOff>
     </xdr:to>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="11" name="文字方塊 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126C3CE9-790B-4AB3-9406-405985EC69EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB159EF-AF6E-419A-A67C-C6B9075D4633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,8 +1351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1364951" y="1094588"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1367003" y="1094588"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,7 +1402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1411,7 +1411,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1441,7 +1441,7 @@
         <xdr:cNvPr id="12" name="直線接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A07F197-6A1C-4656-92A7-BDCCF95A2860}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2689EFBB-F0E7-4226-8149-7611DCE67D84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
         <xdr:cNvPr id="13" name="直線接點 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5FFE38-8E4A-49EE-A50D-019BE2A6C857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978DB7FC-B6AC-446E-AEBF-2C09D4F1AEAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1551,7 @@
         <xdr:cNvPr id="14" name="直線接點 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEDEC80-384E-421B-9FF7-2407C6CD5B60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9638220-09FF-4AB1-B3EC-02AD02A44DE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1606,7 @@
         <xdr:cNvPr id="15" name="直線接點 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D56BA2-1385-41C4-BA62-AAAEAF02DD39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DD2A5C-FE35-42F7-9BC1-6D4159E06738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1661,7 @@
         <xdr:cNvPr id="16" name="直線接點 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159EF9D8-9F2E-4B4F-A7D6-1B2DEC1C9D49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC22A8E-0442-4408-ADF4-EB1547F5F8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,13 +1701,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>52677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>185758</xdr:rowOff>
     </xdr:to>
@@ -1716,7 +1716,7 @@
         <xdr:cNvPr id="17" name="文字方塊 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720C36DD-2D0C-45BD-B951-84AFBA933361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B089F1-D7E8-46AB-9F3F-AD8F9DA2102A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,8 +1724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="1300452"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="1300452"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,7 +1775,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1784,7 +1784,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1799,13 +1799,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>221992</xdr:colOff>
+      <xdr:colOff>224044</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>265448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>374726</xdr:colOff>
+      <xdr:colOff>372674</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>376311</xdr:rowOff>
     </xdr:to>
@@ -1814,7 +1814,7 @@
         <xdr:cNvPr id="18" name="文字方塊 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C27DDD5-DA06-4EBB-9B76-DB9C12D90F2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122B0795-B10B-41DB-8BE8-16967850192C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,8 +1822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1364992" y="1513223"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1367044" y="1513223"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,7 +1873,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1882,7 +1882,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1912,7 +1912,7 @@
         <xdr:cNvPr id="19" name="直線接點 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229A26A0-D9BE-4FAE-8825-1824D27ED897}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6344DC9-2571-44A6-A5E0-9109D070B2AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1967,7 @@
         <xdr:cNvPr id="20" name="直線接點 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C9C5E-0A5C-404F-8FC0-56364772A538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB1E459-3058-422A-9B84-595FFD962A26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,13 +2007,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>247450</xdr:rowOff>
     </xdr:to>
@@ -2022,7 +2022,7 @@
         <xdr:cNvPr id="21" name="文字方塊 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDC4F0E-EDB3-4C84-9581-066B39790E15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2128CCDA-F437-4F2E-9E23-4A25BB0E4552}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,8 +2030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="1800294"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="1800294"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,7 +2081,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2090,7 +2090,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="22" name="直線接點 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D8A4D3-AABB-43F4-9057-E5EE7B44DEB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8BD62-55E3-4A0E-ABBB-4B3E318F7104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="23" name="直線接點 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28528B9C-1095-4CEE-A46C-72B3C4B2A2E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64E4CF2-80C9-4F9F-BCD8-33D91261D376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2230,7 @@
         <xdr:cNvPr id="24" name="直線接點 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACB7F24-55D4-4040-92A2-8F3AA5236251}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3098A17D-68FB-49F1-88B4-9AA945D1D685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2285,7 @@
         <xdr:cNvPr id="25" name="直線接點 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9406E678-A886-4C14-8F03-BA2CE04BE39E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7569782-0C97-4DAF-8E67-16DC0EC7CC15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2340,7 @@
         <xdr:cNvPr id="26" name="直線接點 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AED8019-565E-49C7-A862-70AE2E1A9FA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABABDBE-488D-4054-878A-25DDDD203F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2395,7 @@
         <xdr:cNvPr id="27" name="直線接點 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F64A7F-DDAA-42EF-B817-727DAFF8231F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231ED4FB-DE98-4FD0-8BEA-45709F5F7BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="28" name="直線接點 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D512E69D-86BB-42FD-8CE1-EAA4BADD888B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E57011-D17E-4A42-B98D-12A7E59A58E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2505,7 @@
         <xdr:cNvPr id="29" name="直線接點 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DA5C75-1CCC-4D13-BA67-98C3102772FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9703D8-715D-4DB8-B7DF-D700CF32075A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="30" name="直線接點 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF5FF4F-F237-479C-8E18-247A253FE73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF02264-0F99-4CB5-84FE-20DF2B550FB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2615,7 @@
         <xdr:cNvPr id="31" name="直線接點 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D1C155-D8D4-43D4-BD1E-53ABC58F619A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AF270A-D247-4BF9-9CD8-1AC1AF22014A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2670,7 @@
         <xdr:cNvPr id="32" name="直線接點 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3387FC82-C604-4BBF-A160-1F5CBF9A4E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BDA41D-D10A-42FD-B84A-0BE07A9D9E0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2725,7 @@
         <xdr:cNvPr id="33" name="直線接點 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82886488-BEDB-44B3-9A4F-360069D3BA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F2C6FE-15B1-407C-9901-0A354545AACC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,13 +2765,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557478</xdr:colOff>
+      <xdr:colOff>561229</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>44242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832553</xdr:colOff>
+      <xdr:colOff>828803</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>177323</xdr:rowOff>
     </xdr:to>
@@ -2780,7 +2780,7 @@
         <xdr:cNvPr id="34" name="文字方塊 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C2E202-FDFA-4F58-A0BB-7354BA0CB234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F998F2FF-7C43-4DBB-A201-87AC3A8F90FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,8 +2788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700478" y="2168317"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704229" y="2168317"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,7 +2839,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2848,7 +2848,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2863,13 +2863,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226178</xdr:colOff>
+      <xdr:colOff>228230</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>263757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>378912</xdr:colOff>
+      <xdr:colOff>376860</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>374620</xdr:rowOff>
     </xdr:to>
@@ -2878,7 +2878,7 @@
         <xdr:cNvPr id="35" name="文字方塊 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5559A0F-038B-4D03-88E8-0898AE88B994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99382B86-FFF5-4281-93B9-1689326D8E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369178" y="2387832"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1371230" y="2387832"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2937,7 +2937,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2946,7 +2946,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2961,13 +2961,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1014155</xdr:colOff>
+      <xdr:colOff>1016207</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>274304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1166889</xdr:colOff>
+      <xdr:colOff>1164837</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>385167</xdr:rowOff>
     </xdr:to>
@@ -2976,7 +2976,7 @@
         <xdr:cNvPr id="36" name="文字方塊 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33BBFD3-5580-4BF9-89C6-39AA7D830CDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97CAAED-04A8-4270-88F8-7207075C24CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,8 +2984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2157155" y="2398379"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2159207" y="2398379"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,7 +3035,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3044,7 +3044,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3074,7 +3074,7 @@
         <xdr:cNvPr id="37" name="直線接點 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DE16CE-8300-49D2-9110-0F9E3DC978B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17D95CC-C8E4-4950-A701-24C966363394}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
         <xdr:cNvPr id="38" name="直線接點 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683EB015-4722-4BB2-BB0B-4644A09EF82A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7763F19-6A34-4981-9875-C3DF8BF34FCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="39" name="直線接點 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4360F02B-F954-4DCC-A3E2-50A87D30CB4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FB3934E-9B09-400E-BFC2-0979AEE36BF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="40" name="直線接點 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58A8728-AEA6-45A6-ACEB-730F6405D611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC212B7-16EB-4959-90D9-75A09E09FBC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
         <xdr:cNvPr id="41" name="直線接點 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06008D4E-E082-4E37-ABE3-2C4C3F817CF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5DE52F-3C5F-493F-B1E0-F3A505EA2366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3349,7 @@
         <xdr:cNvPr id="42" name="直線接點 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA5C31D-2AA6-4FDB-B86A-D48DCD0B931A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700805C7-35F4-46D8-B48F-DF0E7034C832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="43" name="直線接點 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBDB877-E1D8-484E-8319-C9FF28B869A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B0FB1D-E035-49EE-9E28-E8E9A68E3DC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3459,7 @@
         <xdr:cNvPr id="44" name="直線接點 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32F1240-05C6-43F3-8E83-9CC5A298ACAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081B7BAE-9019-444C-A225-7B90A182878F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3514,7 +3514,7 @@
         <xdr:cNvPr id="45" name="直線接點 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F36D7C-C863-4FB0-B4B1-34B7E2AEA225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F618CEE-8662-4C40-B4ED-9987B570B264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3569,7 @@
         <xdr:cNvPr id="46" name="直線接點 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F736EF43-6D0C-4C29-9C67-4A3432206A0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484C3C79-50F9-4B7F-BC70-201E41F64245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3624,7 @@
         <xdr:cNvPr id="47" name="直線接點 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AC99C0-1829-4197-903C-0DCF5641D883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0CFE4C-A912-4A16-8621-C7B65F7DEC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3679,7 @@
         <xdr:cNvPr id="48" name="直線接點 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFC8B5F-8B74-44E3-BC26-DA88026A847C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334E647C-EA4B-422D-A99E-9B0E6AA8BDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3719,13 +3719,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557478</xdr:colOff>
+      <xdr:colOff>561229</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>44242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832553</xdr:colOff>
+      <xdr:colOff>828803</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177323</xdr:rowOff>
     </xdr:to>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="49" name="文字方塊 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B018BF4D-571B-4F77-ABFC-FC1BB1F96CA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5B7454-77FA-4BD2-9FB6-539682FA265A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3742,8 +3742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700478" y="2606467"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704229" y="2606467"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3793,7 +3793,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3802,7 +3802,7 @@
             </a:rPr>
             <a:t>600</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3817,13 +3817,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>264361</xdr:colOff>
+      <xdr:colOff>265387</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>263757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>340729</xdr:colOff>
+      <xdr:colOff>339703</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>374620</xdr:rowOff>
     </xdr:to>
@@ -3832,7 +3832,7 @@
         <xdr:cNvPr id="50" name="文字方塊 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E507E5-0364-4034-9BFF-0EC8336CAD22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684A1D7C-CAC0-4554-B075-67B50E7535D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3840,8 +3840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1407361" y="2825982"/>
-          <a:ext cx="76368" cy="110863"/>
+          <a:off x="1408387" y="2825982"/>
+          <a:ext cx="74316" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3891,7 +3891,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3900,7 +3900,7 @@
             </a:rPr>
             <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3915,13 +3915,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1014155</xdr:colOff>
+      <xdr:colOff>1016207</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>274304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1166889</xdr:colOff>
+      <xdr:colOff>1164837</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>385167</xdr:rowOff>
     </xdr:to>
@@ -3930,7 +3930,7 @@
         <xdr:cNvPr id="51" name="文字方塊 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F88113-7575-4D0D-9F3B-9CA1AE62E553}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FDE2F2-C812-42A5-A426-4CA694752CBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,8 +3938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2157155" y="2836529"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2159207" y="2836529"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3989,7 +3989,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3998,7 +3998,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4028,7 +4028,7 @@
         <xdr:cNvPr id="52" name="直線接點 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B38890-3737-4CC2-955E-DD57E9A30C83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64A3842-00B8-4A8E-AAAB-ED81556097DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4083,7 @@
         <xdr:cNvPr id="53" name="直線接點 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788C8A44-C83E-4C3E-9922-A90319FEA830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D80B626-FDEC-4A14-A0F6-A361A50240CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4138,7 @@
         <xdr:cNvPr id="54" name="直線接點 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBBA540-7A81-4518-B840-D9C4A4781609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623192DE-F719-41C4-BC41-2A0E28703957}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4193,7 @@
         <xdr:cNvPr id="55" name="直線接點 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBB4836-0E26-491F-80C2-50CF693B0D45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD70C12-39C9-4F07-AC79-AC0B01ECBBC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4248,7 +4248,7 @@
         <xdr:cNvPr id="56" name="直線接點 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCC606-50D6-41C3-9641-B4BEEE362777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB72043-9700-4865-827B-EBB0ED06D806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4303,7 @@
         <xdr:cNvPr id="57" name="直線接點 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437C3867-6579-4BAE-B287-E8B30AED4D03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4364C6-7D99-476A-835D-1BF68FBBE0DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4358,7 @@
         <xdr:cNvPr id="58" name="直線接點 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD0A53E-6221-45B1-B9B1-B809F061ACFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5516D2B-8005-4764-B160-8E5EA2AF0551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4413,7 +4413,7 @@
         <xdr:cNvPr id="59" name="直線接點 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950D7C53-3DEE-4C8F-8CB2-F218A7F25861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1C6CF-2DD9-4375-A620-7555E7DA6692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4468,7 @@
         <xdr:cNvPr id="60" name="直線接點 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DF8048-BF5E-4C4A-B521-9D2C91C35399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B612FCE6-3628-4704-8509-32793A4081B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4508,7 +4508,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>97305</xdr:colOff>
+      <xdr:colOff>102307</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>74856</xdr:rowOff>
     </xdr:from>
@@ -4523,7 +4523,7 @@
         <xdr:cNvPr id="61" name="文字方塊 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C2A6F8-4397-47B2-96FC-F0B91EADF8C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F9CFCDB-8998-4365-A4F3-8323197E712F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4531,8 +4531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1240305" y="3075231"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1245307" y="3075231"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4582,7 +4582,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4591,7 +4591,7 @@
             </a:rPr>
             <a:t>55</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4606,13 +4606,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>554503</xdr:colOff>
+      <xdr:colOff>558254</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>235958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>829578</xdr:colOff>
+      <xdr:colOff>825828</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>369039</xdr:rowOff>
     </xdr:to>
@@ -4621,7 +4621,7 @@
         <xdr:cNvPr id="62" name="文字方塊 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BED8BD-4713-4BAA-B67A-17D1FC8226A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CD786D-0DDF-419A-A222-33AFA923FB51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4629,8 +4629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1697503" y="3236333"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1701254" y="3236333"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4680,7 +4680,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4689,7 +4689,7 @@
             </a:rPr>
             <a:t>750</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4704,13 +4704,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1009196</xdr:colOff>
+      <xdr:colOff>1011248</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>295514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1161930</xdr:colOff>
+      <xdr:colOff>1159878</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>406377</xdr:rowOff>
     </xdr:to>
@@ -4719,7 +4719,7 @@
         <xdr:cNvPr id="63" name="文字方塊 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F958F28-8CA4-48E5-B063-8F2EDA2B8599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C181D67-ACC3-4ACE-A4C7-5847C8E8A01B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4727,8 +4727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152196" y="3295889"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2154248" y="3295889"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4778,7 +4778,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4787,7 +4787,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -4817,7 +4817,7 @@
         <xdr:cNvPr id="64" name="直線接點 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC4185B-DE74-4B98-B58A-11CDDC042851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27903A4-ACC4-41B3-84D9-85DD3680D4EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4872,7 +4872,7 @@
         <xdr:cNvPr id="65" name="直線接點 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC5E898-29A5-4647-9E01-1B760D3305D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591025D8-2EFE-4EF1-981B-9C1D35284421}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4927,7 +4927,7 @@
         <xdr:cNvPr id="66" name="直線接點 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB75856D-3B1B-4ECF-B40E-9963203A2AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AC4638-ACF4-4F6F-8EB6-C96EC32E1CB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,7 +4982,7 @@
         <xdr:cNvPr id="67" name="直線接點 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2317DCEF-28D2-415C-9B05-2D8C8ED79DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFD5976-6DB7-45DC-AD0B-B5B69B6F27B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5037,7 @@
         <xdr:cNvPr id="68" name="直線接點 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065EDF13-50C0-4EE5-B09B-E5C5314384E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13214B7-C979-4183-999B-88FAB3EE3FA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,7 +5092,7 @@
         <xdr:cNvPr id="69" name="直線接點 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12009B26-59F8-420A-A967-60B3244BF641}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EE96E2-B75E-4D7C-B03B-8172EEFE1C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5132,7 +5132,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>97305</xdr:colOff>
+      <xdr:colOff>102307</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>67631</xdr:rowOff>
     </xdr:from>
@@ -5147,7 +5147,7 @@
         <xdr:cNvPr id="70" name="文字方塊 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051FEB6E-B5A2-46A2-B42F-2FD85995CAD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5391E75B-BD88-4E80-9007-3472B7946F1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5155,8 +5155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1240305" y="3506156"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1245307" y="3506156"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5206,7 +5206,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5215,7 +5215,7 @@
             </a:rPr>
             <a:t>55</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5230,13 +5230,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>227586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>360667</xdr:rowOff>
     </xdr:to>
@@ -5245,7 +5245,7 @@
         <xdr:cNvPr id="71" name="文字方塊 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F13586-0C2F-4246-AE27-CF96FDE57575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43C844E-09A5-4448-9F8D-8C13AE3A4435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,8 +5253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="3666111"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="3666111"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5304,7 +5304,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5313,7 +5313,7 @@
             </a:rPr>
             <a:t>750</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5328,13 +5328,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1007218</xdr:colOff>
+      <xdr:colOff>1009270</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>277965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1159952</xdr:colOff>
+      <xdr:colOff>1157900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>388828</xdr:rowOff>
     </xdr:to>
@@ -5343,7 +5343,7 @@
         <xdr:cNvPr id="72" name="文字方塊 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFE27E1-170D-4B44-86DC-AB376BF2D3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39E6BA1-FD53-46F0-AEA9-72806002CEAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5351,8 +5351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2150218" y="3716490"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2152270" y="3716490"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5402,7 +5402,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5411,7 +5411,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5441,7 +5441,7 @@
         <xdr:cNvPr id="73" name="直線接點 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8720ACAE-85A3-42C0-BDE7-21089F3636C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D0B87A-86CC-4739-9F66-F287BDE1BFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5496,7 +5496,7 @@
         <xdr:cNvPr id="74" name="直線接點 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFF567B-390C-4442-A8E4-2C5280C415D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F1FC0B-2EC8-4A86-A242-3791E9253132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5551,7 @@
         <xdr:cNvPr id="75" name="直線接點 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A79804-D651-4D8B-A6AF-F64EB19EAA71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677611F0-4414-4E91-8F2B-C553ED872BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="76" name="直線接點 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B87402F-09F5-4607-BA6C-2677698AEE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AD407A-02BE-439A-A850-D58FD372C6DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5661,7 +5661,7 @@
         <xdr:cNvPr id="77" name="直線接點 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1C0EA0-F463-42C1-AB86-22DA9C4362BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62963C3E-6A89-429C-87B1-B6DCAF049116}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,7 +5716,7 @@
         <xdr:cNvPr id="78" name="直線接點 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198D83A2-303C-43E4-86E9-78DACE5FC48E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D83978D-0EAF-47CE-BA5F-B484BB8276EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5756,13 +5756,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>39079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>172160</xdr:rowOff>
     </xdr:to>
@@ -5771,7 +5771,7 @@
         <xdr:cNvPr id="79" name="文字方塊 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B9C927-7D2A-4B56-B2A4-311285A75EB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC810DD-6EE3-445A-883A-7517FAB2E569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,8 +5779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="3915754"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="3915754"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5830,7 +5830,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5839,7 +5839,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5854,13 +5854,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223283</xdr:colOff>
+      <xdr:colOff>225335</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>245095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376017</xdr:colOff>
+      <xdr:colOff>373965</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>355958</xdr:rowOff>
     </xdr:to>
@@ -5869,7 +5869,7 @@
         <xdr:cNvPr id="80" name="文字方塊 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9E8842-6145-4BA9-92BC-10C9CED460CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91C9FC7-7F57-40C8-8414-F97EF230AF1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5877,8 +5877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1366283" y="4121770"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1368335" y="4121770"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5928,7 +5928,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5937,7 +5937,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -5967,7 +5967,7 @@
         <xdr:cNvPr id="81" name="直線接點 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F725517-733F-412A-838B-061ABCA3A5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7853822-7787-4D37-B0C9-2EFBB9FFE523}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6022,7 +6022,7 @@
         <xdr:cNvPr id="82" name="直線接點 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123B88BB-72D8-4BA5-9402-AFDD6CC66875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE956A37-9651-4CFB-A730-5BC2D850DA22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6077,7 +6077,7 @@
         <xdr:cNvPr id="83" name="直線接點 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07B2B53-156A-4CBD-A169-720A9ECFBA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E89AA-790B-4CC6-BC6A-A26984E0ECFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6132,7 +6132,7 @@
         <xdr:cNvPr id="84" name="直線接點 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B4AF94-BAD0-48FA-A3FD-E511AA9622A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A3AB87-B46A-4FA3-8844-A87C62B3A081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6187,7 +6187,7 @@
         <xdr:cNvPr id="85" name="直線接點 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93615921-979C-4434-A6CE-0CBDBE4B3A72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F518F67A-DF63-4B5A-8915-7A7A318DB3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6242,7 +6242,7 @@
         <xdr:cNvPr id="86" name="直線接點 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B59E38A-9151-4715-8ACE-224EE4CC201D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD8ABC4-0C89-4698-A5B6-7E29E438ED7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6297,7 +6297,7 @@
         <xdr:cNvPr id="87" name="直線接點 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EEDD2E-CBD1-431C-9594-B41B97F8C234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16F5822-FE1C-47A9-A04E-EF320A3A9438}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6352,7 @@
         <xdr:cNvPr id="88" name="直線接點 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546FBA36-0C56-48C6-8C49-D54CEFDDB4C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660FCEB4-C93D-4C42-AF6F-AF947D180B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6407,7 +6407,7 @@
         <xdr:cNvPr id="89" name="直線接點 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249ACAE0-13D3-4AF8-B449-C049CE89B3F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA335DB8-AB66-4760-80B2-73C67A20A96A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6462,7 +6462,7 @@
         <xdr:cNvPr id="90" name="直線接點 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30311D45-9F1C-44D5-8E87-275D4278B4EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF6A0EB-11AB-4E15-A060-A227E585B837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6517,7 +6517,7 @@
         <xdr:cNvPr id="91" name="直線接點 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2941B64-BE64-4BBE-884C-A2A61E654A8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C714A9CB-52B1-4774-9EA7-0629868F8E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6572,7 @@
         <xdr:cNvPr id="92" name="直線接點 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277F4E4C-84AF-4FF7-A5E8-3AF13A11645B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECBFEAF-5CD0-43D1-B558-8D9A45F65DD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6627,7 +6627,7 @@
         <xdr:cNvPr id="93" name="直線接點 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938E580B-138D-40A2-8D5A-CD4E0628131D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D26B5A5-4265-4C12-BDC7-744AAF0C0BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6682,7 @@
         <xdr:cNvPr id="94" name="直線接點 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D369768-0F98-4826-8778-CBB734D01055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA1F96A-6534-4C8B-A145-B01BB7A5D6BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6737,7 +6737,7 @@
         <xdr:cNvPr id="95" name="直線接點 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B9725D-220C-4BFB-8352-DD2C5F41067F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC5606C-D4FC-4B30-918C-6C8F7597B0F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6777,13 +6777,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>51232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>184313</xdr:rowOff>
     </xdr:to>
@@ -6792,7 +6792,7 @@
         <xdr:cNvPr id="96" name="文字方塊 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4302D60-79E0-406A-87C8-05020D9B0C55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE60D2AB-2806-4398-A90A-47EC947B36F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6800,8 +6800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="4366057"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="4366057"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6851,7 +6851,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6860,7 +6860,7 @@
             </a:rPr>
             <a:t>700</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -6875,13 +6875,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222439</xdr:colOff>
+      <xdr:colOff>224491</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>267031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>375173</xdr:colOff>
+      <xdr:colOff>373121</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>377894</xdr:rowOff>
     </xdr:to>
@@ -6890,7 +6890,7 @@
         <xdr:cNvPr id="97" name="文字方塊 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9AB9EF-34B1-4B55-A97A-46BA51F6E2B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0631ED-56C0-4AEC-91F6-A5FED074D2DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6898,8 +6898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1365439" y="4581856"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1367491" y="4581856"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6949,7 +6949,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -6958,7 +6958,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -6973,13 +6973,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1008756</xdr:colOff>
+      <xdr:colOff>1010808</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>266848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1161490</xdr:colOff>
+      <xdr:colOff>1159438</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>377711</xdr:rowOff>
     </xdr:to>
@@ -6988,7 +6988,7 @@
         <xdr:cNvPr id="98" name="文字方塊 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED37909-03C6-42E4-B21B-00EC427B2A43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A10574-3682-4E45-A732-C3E7B32B3ADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6996,8 +6996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2151756" y="4581673"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2153808" y="4581673"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7047,7 +7047,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7056,7 +7056,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -7086,7 +7086,7 @@
         <xdr:cNvPr id="99" name="直線接點 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1070240-0917-4651-A6D0-C9503529990C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CC81E7-D961-4C8F-8C6C-93A7D924D8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7141,7 +7141,7 @@
         <xdr:cNvPr id="100" name="直線接點 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963E42F7-FE93-4177-82E2-601910F7A7BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB12C22A-18CA-4FCC-A094-40D40D48B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7196,7 +7196,7 @@
         <xdr:cNvPr id="101" name="直線接點 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE3CF8C-837A-44B8-9BF8-779EBFF4C728}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BC34B1-5F8F-4060-801E-C9ACE81158D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7251,7 +7251,7 @@
         <xdr:cNvPr id="102" name="直線接點 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77034E85-F30B-4B5B-B315-CAA3832F656B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F898FC5-B3DC-4630-99CB-11003BB2F117}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7306,7 +7306,7 @@
         <xdr:cNvPr id="103" name="直線接點 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BDC8C0-EC0E-4BA9-8AED-0940754CDECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0EED07-4177-43ED-82C1-72BC10E88122}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,7 +7361,7 @@
         <xdr:cNvPr id="104" name="直線接點 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F4CDA2-0DA9-47A7-986D-7EEA42781D25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDE0D4E-D17C-4FC7-9C77-7F17BFD72205}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7416,7 +7416,7 @@
         <xdr:cNvPr id="105" name="直線接點 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6C8D92-236D-48F9-B7C5-70800D89A89E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C763DBD7-0970-4B0E-9026-3416C0CCA821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7471,7 +7471,7 @@
         <xdr:cNvPr id="106" name="直線接點 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA760A3F-3439-45F4-A2D8-0BB013AB5E8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320B4920-C3C7-483F-B283-518D76F620E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7526,7 +7526,7 @@
         <xdr:cNvPr id="107" name="直線接點 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80F1293-7A09-4E61-8203-849C0E9CF8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB3ECA2-C267-43D4-AE97-DF6293D813A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,13 +7566,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>46949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>180030</xdr:rowOff>
     </xdr:to>
@@ -7581,7 +7581,7 @@
         <xdr:cNvPr id="108" name="文字方塊 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F75232-B63E-47EB-97D1-B674234241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D7C9D5-C216-4D91-9DC5-40BE18504AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7589,8 +7589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="4799924"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="4799924"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7640,7 +7640,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7649,7 +7649,7 @@
             </a:rPr>
             <a:t>700</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -7664,13 +7664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222264</xdr:colOff>
+      <xdr:colOff>224316</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>266376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>374998</xdr:colOff>
+      <xdr:colOff>372946</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>377239</xdr:rowOff>
     </xdr:to>
@@ -7679,7 +7679,7 @@
         <xdr:cNvPr id="109" name="文字方塊 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFC76E4-1E9D-48FD-AA4F-267A6585B245}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B15250A-9E7C-427E-8C53-A6D9B1F22522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7687,8 +7687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1365264" y="5019351"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="1367316" y="5019351"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7738,7 +7738,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7747,7 +7747,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -7762,13 +7762,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1009357</xdr:colOff>
+      <xdr:colOff>1011409</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>269498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1162091</xdr:colOff>
+      <xdr:colOff>1160039</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>380361</xdr:rowOff>
     </xdr:to>
@@ -7777,7 +7777,7 @@
         <xdr:cNvPr id="110" name="文字方塊 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD91C9E3-6442-418C-B12A-3EB3AB01885F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479E57A6-41AF-45F1-B710-988053DDC603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7785,8 +7785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152357" y="5022473"/>
-          <a:ext cx="152734" cy="110863"/>
+          <a:off x="2154409" y="5022473"/>
+          <a:ext cx="148630" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7836,7 +7836,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -7845,7 +7845,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -7875,7 +7875,7 @@
         <xdr:cNvPr id="111" name="直線接點 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92177A1A-C4C2-4F1D-974D-FF0EEF62F188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A0CEDF-00AC-451B-A313-4D9FD6DACDC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7930,7 +7930,7 @@
         <xdr:cNvPr id="112" name="直線接點 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0DA01C-23D6-452D-A77A-F247CF14FB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD08B263-CCF5-45A4-9306-DDDCF8B88B59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7985,7 +7985,7 @@
         <xdr:cNvPr id="113" name="直線接點 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D1BA27-19FA-435D-B6CA-95634EFE295B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746DF154-90DD-4161-A58E-002146815F80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8025,13 +8025,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>91651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>224732</xdr:rowOff>
     </xdr:to>
@@ -8040,7 +8040,7 @@
         <xdr:cNvPr id="114" name="文字方塊 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D3FFB2-FCF9-46F4-94EF-1854239D03E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4924A51A-D4DD-428F-8386-1C64BF695EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8048,8 +8048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="5282776"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="5282776"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8099,7 +8099,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8108,7 +8108,7 @@
             </a:rPr>
             <a:t>500</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -8138,7 +8138,7 @@
         <xdr:cNvPr id="115" name="直線接點 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8620B0C0-653D-4458-939A-A68858F361F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05490FA3-032E-4BA9-8A72-71496EA2F96C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8193,7 +8193,7 @@
         <xdr:cNvPr id="116" name="直線接點 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36267CCE-EA95-4A2C-AEB7-23EB920164C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C509CC-B494-4FC8-932A-B7D858CB4FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8248,7 +8248,7 @@
         <xdr:cNvPr id="117" name="直線接點 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABBB30-7730-4322-924B-0696DD8AAB8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971D0E8C-A866-4194-9187-049E1D0D4823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8303,7 +8303,7 @@
         <xdr:cNvPr id="118" name="直線接點 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31636BD4-3F3C-4488-AAB8-E8EB2810217F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C53137-26F0-4316-90FB-E1DE2BABE2C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8358,7 +8358,7 @@
         <xdr:cNvPr id="119" name="弧形 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76F6EF4-9F20-4C94-B996-209C4854526A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5222A48C-13A0-4368-9AD3-C96A3A1E12A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8424,7 +8424,7 @@
         <xdr:cNvPr id="120" name="弧形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB6F08C-16C2-41A3-A52D-72FB61147AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853896B3-289F-4BB1-8783-AA5AC701E482}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8475,7 +8475,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>93044</xdr:colOff>
+      <xdr:colOff>100545</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>434763</xdr:rowOff>
     </xdr:from>
@@ -8490,7 +8490,7 @@
         <xdr:cNvPr id="121" name="文字方塊 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBB7DBA-C145-4220-80B8-1E95136778DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94542A5F-4BA4-4A33-97F1-C9EA39019273}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8498,8 +8498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1236044" y="6064038"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1243545" y="6064038"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8549,7 +8549,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8558,7 +8558,7 @@
             </a:rPr>
             <a:t>125</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -8573,13 +8573,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609308</xdr:colOff>
+      <xdr:colOff>611809</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>72734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792692</xdr:colOff>
+      <xdr:colOff>790191</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>205815</xdr:rowOff>
     </xdr:to>
@@ -8588,7 +8588,7 @@
         <xdr:cNvPr id="122" name="文字方塊 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ABA9A4-EA1A-4005-92F5-BAF047CD9AA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5B565C-06CF-4CC8-A9FA-052D8FE999AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8596,8 +8596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752308" y="5702009"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1754809" y="5702009"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8647,7 +8647,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8656,7 +8656,7 @@
             </a:rPr>
             <a:t>40</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -8677,7 +8677,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1290202</xdr:colOff>
+      <xdr:colOff>1282701</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>562955</xdr:rowOff>
     </xdr:to>
@@ -8686,7 +8686,7 @@
         <xdr:cNvPr id="123" name="文字方塊 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABECFA0F-839C-46D9-82A4-21D56CB2399D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71335D3-AB0C-474B-AEED-6CCCBB5A2823}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8695,7 +8695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2158127" y="6059149"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8745,7 +8745,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8754,7 +8754,7 @@
             </a:rPr>
             <a:t>125</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -8769,13 +8769,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1058271</xdr:colOff>
+      <xdr:colOff>1060772</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>825908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1241655</xdr:colOff>
+      <xdr:colOff>1239154</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>958989</xdr:rowOff>
     </xdr:to>
@@ -8784,7 +8784,7 @@
         <xdr:cNvPr id="124" name="文字方塊 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41276449-7A23-441D-AE6A-CEF286C27666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9620D7F3-8C5B-4F86-A11C-BBF6D789216B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8792,8 +8792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2201271" y="6455183"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="2203772" y="6455183"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8843,7 +8843,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -8852,7 +8852,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -8882,7 +8882,7 @@
         <xdr:cNvPr id="125" name="直線接點 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C067E544-7077-4881-A70B-1E2318193935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A524B4A1-A38D-477C-BCE1-6DA2842C49B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8937,7 +8937,7 @@
         <xdr:cNvPr id="126" name="直線接點 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9FE2E3-F3EC-4D38-A84B-B613A09364B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6FA03F-FFFD-4AF8-B0CB-4DD66B159220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8992,7 +8992,7 @@
         <xdr:cNvPr id="127" name="直線接點 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299A6C2D-7FBD-49A3-A70E-90A8AA8A67B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC78407-A759-405C-8445-40DA341D0B62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9047,7 +9047,7 @@
         <xdr:cNvPr id="128" name="直線接點 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898836CE-D9FD-4075-A808-0892FCC77E17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40107F1-BF46-4911-9110-EE3B655D9340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9102,7 +9102,7 @@
         <xdr:cNvPr id="129" name="直線接點 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA197D75-3A28-4A90-B0A5-AEF3D05C7418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5A0FFC-7470-4CFC-960D-EA07A57FD127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9157,7 +9157,7 @@
         <xdr:cNvPr id="130" name="直線接點 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478BAD33-4257-48EF-8156-D81061C217F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E260ED24-D0EB-480A-8CBE-34F1C23B1DB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9212,7 +9212,7 @@
         <xdr:cNvPr id="131" name="直線接點 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3068B6-20AB-4F55-A473-0D94C2899576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CE5AAE-7249-4791-A913-83B0469E687F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9267,7 +9267,7 @@
         <xdr:cNvPr id="132" name="直線接點 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1080A99-536D-48F4-BBAA-1E0B9D9E3B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2B1BA5-A110-434C-9058-2736D192022D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9322,7 +9322,7 @@
         <xdr:cNvPr id="133" name="直線接點 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5178E9BE-D4F1-4866-BF91-0DAEBA24B646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D967D7D-95CC-4695-B82C-69B92D1A69EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9377,7 +9377,7 @@
         <xdr:cNvPr id="134" name="直線接點 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B366AA66-49E8-4395-BBD4-914EC393DD11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6954EF3F-B05B-4091-983A-2145B167E018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9432,7 +9432,7 @@
         <xdr:cNvPr id="135" name="直線接點 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91965DA7-C9ED-4EB9-A054-4D3B32ECFD7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6252504D-7F81-4735-88C3-9348AC9987AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9487,7 +9487,7 @@
         <xdr:cNvPr id="136" name="直線接點 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14786ADE-A000-43EB-9BE0-108A12DFBAC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF49013A-27E4-4CA9-8A45-0C979A1F2966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9527,13 +9527,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557478</xdr:colOff>
+      <xdr:colOff>561229</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832553</xdr:colOff>
+      <xdr:colOff>828803</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>177323</xdr:rowOff>
     </xdr:to>
@@ -9542,7 +9542,7 @@
         <xdr:cNvPr id="137" name="文字方塊 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB820CF8-FBB2-4CBE-9ADF-7A5092E57672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DFEC7A-4224-4C56-9BBD-656F918833F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9550,8 +9550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700478" y="6683167"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704229" y="6683167"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9601,7 +9601,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9610,7 +9610,7 @@
             </a:rPr>
             <a:t>650</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -9625,13 +9625,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>264361</xdr:colOff>
+      <xdr:colOff>265387</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>263757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>340729</xdr:colOff>
+      <xdr:colOff>339703</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>374620</xdr:rowOff>
     </xdr:to>
@@ -9640,7 +9640,7 @@
         <xdr:cNvPr id="138" name="文字方塊 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E126585B-5B6D-4425-BBBF-2FCFB3C64B12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196FB36A-9464-41AD-80B6-9968702E7337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9648,8 +9648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1407361" y="6902682"/>
-          <a:ext cx="76368" cy="110863"/>
+          <a:off x="1408387" y="6902682"/>
+          <a:ext cx="74316" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9699,7 +9699,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9708,7 +9708,7 @@
             </a:rPr>
             <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -9723,13 +9723,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1052338</xdr:colOff>
+      <xdr:colOff>1053364</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>274304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1128706</xdr:colOff>
+      <xdr:colOff>1127680</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>385167</xdr:rowOff>
     </xdr:to>
@@ -9738,7 +9738,7 @@
         <xdr:cNvPr id="139" name="文字方塊 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51FA961-A93A-4084-9C4B-AB5B9B8DBAF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1274586-DE98-4FD0-94BE-723FA4AA38CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9746,8 +9746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2195338" y="6913229"/>
-          <a:ext cx="76368" cy="110863"/>
+          <a:off x="2196364" y="6913229"/>
+          <a:ext cx="74316" cy="110863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9797,7 +9797,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9806,7 +9806,7 @@
             </a:rPr>
             <a:t>6</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -9836,7 +9836,7 @@
         <xdr:cNvPr id="140" name="直線接點 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82664704-6F9A-4C3D-8636-8D1734484F27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A9F77-4298-4D80-AE62-449755F6D0C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9891,7 +9891,7 @@
         <xdr:cNvPr id="141" name="直線接點 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7064B1E-4A38-473A-80D5-CE871DEB7A43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB7366C-ED31-48D3-A40F-FF13AB3D0D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9931,7 +9931,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43877</xdr:colOff>
+      <xdr:colOff>51378</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>97149</xdr:rowOff>
     </xdr:from>
@@ -9946,7 +9946,7 @@
         <xdr:cNvPr id="142" name="文字方塊 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA8094F-030C-4F10-9456-B586411F784A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D83692-15E2-4064-80D0-A8D32B03D9CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9954,8 +9954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1186877" y="7174224"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1194378" y="7174224"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10005,7 +10005,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10014,7 +10014,7 @@
             </a:rPr>
             <a:t>100</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10029,13 +10029,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>983523</xdr:colOff>
+      <xdr:colOff>985445</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>268190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1254941</xdr:colOff>
+      <xdr:colOff>1253019</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>401271</xdr:rowOff>
     </xdr:to>
@@ -10044,7 +10044,7 @@
         <xdr:cNvPr id="143" name="文字方塊 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520F7FFC-6309-4787-BD64-5C2445262AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B073641-761C-4F24-9D42-F19262DC07E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10052,8 +10052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2126523" y="7345265"/>
-          <a:ext cx="271418" cy="133081"/>
+          <a:off x="2128445" y="7345265"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10103,7 +10103,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10112,7 +10112,7 @@
             </a:rPr>
             <a:t>100</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10133,7 +10133,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>887105</xdr:colOff>
+      <xdr:colOff>879411</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>237909</xdr:rowOff>
     </xdr:to>
@@ -10142,7 +10142,7 @@
         <xdr:cNvPr id="144" name="文字方塊 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A879018-34A6-4C9C-B0A2-7ACE69A6A170}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE8EBA7-7570-4B9E-A797-21454E0040AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10151,7 +10151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1692192" y="7181903"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10201,7 +10201,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10210,7 +10210,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10240,7 +10240,7 @@
         <xdr:cNvPr id="145" name="直線接點 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1C757E-F4B2-4CBB-9519-E65DFB3EBB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552EFA21-32A2-40F5-ACD6-A438F19E6CEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10295,7 +10295,7 @@
         <xdr:cNvPr id="146" name="直線接點 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F2CE4A-2DF1-45C6-BD6D-DB996321E7C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED434BF-593F-444E-873B-A96E523A896B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10350,7 +10350,7 @@
         <xdr:cNvPr id="147" name="直線接點 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC4E48A-CF21-47C8-BE43-721E6E194689}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A18FD-159F-44A4-A2EE-487810BB49DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10390,7 +10390,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>135862</xdr:colOff>
+      <xdr:colOff>140864</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>201772</xdr:rowOff>
     </xdr:from>
@@ -10405,7 +10405,7 @@
         <xdr:cNvPr id="148" name="文字方塊 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0760ED1D-720C-466F-BEDD-31E2DC95792F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9619A6B1-9486-4D36-8EDD-31CD854C94FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10413,8 +10413,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1278862" y="7716997"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1283864" y="7716997"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10464,7 +10464,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10473,7 +10473,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10488,13 +10488,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>32190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>165271</xdr:rowOff>
     </xdr:to>
@@ -10503,7 +10503,7 @@
         <xdr:cNvPr id="149" name="文字方塊 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16650AD-B871-401D-9B17-53E97530B534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA882771-8266-4D57-B568-9C8D0C96628B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10511,8 +10511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="7547415"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="7547415"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10562,7 +10562,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10571,7 +10571,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10592,7 +10592,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1255329</xdr:colOff>
+      <xdr:colOff>1250327</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>332931</xdr:rowOff>
     </xdr:to>
@@ -10601,7 +10601,7 @@
         <xdr:cNvPr id="150" name="文字方塊 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C023BCD4-0023-42AD-A99D-4B02A7B6A4AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33E27D-EB66-4427-B9DF-E9DFEAF5D538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10610,7 +10610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214945" y="7715075"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10660,7 +10660,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10669,7 +10669,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10699,7 +10699,7 @@
         <xdr:cNvPr id="151" name="直線接點 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5916881-4CA6-49E7-A045-9FA254B811C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE4A000-7701-49D5-8DD4-B24A4B6762E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10754,7 +10754,7 @@
         <xdr:cNvPr id="152" name="直線接點 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBF7D5B-DABC-460B-8818-A0F52997840A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7355D9-8D5C-44D6-8636-CB77AB30C289}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10809,7 +10809,7 @@
         <xdr:cNvPr id="153" name="直線接點 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9322CEF3-E682-498C-BB12-52667C1CED3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABB48D9-C8A2-4643-8603-DC60D94BC6E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10849,7 +10849,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>135862</xdr:colOff>
+      <xdr:colOff>140864</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>201772</xdr:rowOff>
     </xdr:from>
@@ -10864,7 +10864,7 @@
         <xdr:cNvPr id="154" name="文字方塊 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671A7377-CBCF-41A8-8920-D79402B15BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E66DAF-16EE-4578-8FB3-C81ED5D4D968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10872,8 +10872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1278862" y="8155147"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1283864" y="8155147"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10923,7 +10923,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10932,7 +10932,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -10947,13 +10947,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>32190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>165271</xdr:rowOff>
     </xdr:to>
@@ -10962,7 +10962,7 @@
         <xdr:cNvPr id="155" name="文字方塊 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC0399C-4FD0-4B81-A050-F2D22F5F1CB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033D2A82-9AF6-476F-ACF6-2658C9657420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10970,8 +10970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="7985565"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="7985565"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11021,7 +11021,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11030,7 +11030,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11051,7 +11051,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1255329</xdr:colOff>
+      <xdr:colOff>1250327</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>332931</xdr:rowOff>
     </xdr:to>
@@ -11060,7 +11060,7 @@
         <xdr:cNvPr id="156" name="文字方塊 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D7536B-2263-4268-9BD2-931890A18344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7AE96C-E43C-4B63-BA34-A2C8E1D9B31A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11069,7 +11069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2214945" y="8153225"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11119,7 +11119,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11128,7 +11128,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11158,7 +11158,7 @@
         <xdr:cNvPr id="157" name="直線接點 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9166E8-FFDC-4724-A88A-705DC47E0562}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846D0FF7-CB43-4DA0-A31C-EA8D4BFAAF75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11213,7 @@
         <xdr:cNvPr id="158" name="直線接點 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C495CA38-05D2-4E34-8F2A-45168C4DFD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F30730A-9707-4A99-A7DD-E41D686638D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11268,7 +11268,7 @@
         <xdr:cNvPr id="159" name="直線接點 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D2BBFB-55A7-4D71-805C-BD8767636D0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61E9A2B-047F-48F3-A56B-D8704A7C49C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11308,7 +11308,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136921</xdr:colOff>
+      <xdr:colOff>141923</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>167746</xdr:rowOff>
     </xdr:from>
@@ -11323,7 +11323,7 @@
         <xdr:cNvPr id="160" name="文字方塊 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6C91AA-95B3-4867-8EDB-836BD92DF6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67CFF7B-04D4-4ED5-B391-99229254FD64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11331,8 +11331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1279921" y="8559271"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1284923" y="8559271"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11382,7 +11382,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11391,7 +11391,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11406,13 +11406,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557787</xdr:colOff>
+      <xdr:colOff>561538</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>44655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832862</xdr:colOff>
+      <xdr:colOff>829112</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>177736</xdr:rowOff>
     </xdr:to>
@@ -11421,7 +11421,7 @@
         <xdr:cNvPr id="161" name="文字方塊 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F6BD0F-4ABD-4A6B-A83D-F3B7C3EC062B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B20F46-4C5D-406A-9E7B-ED636D354D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11429,8 +11429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700787" y="8436180"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704538" y="8436180"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11480,7 +11480,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11489,7 +11489,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11510,7 +11510,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1253760</xdr:colOff>
+      <xdr:colOff>1248758</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>347745</xdr:rowOff>
     </xdr:to>
@@ -11519,7 +11519,7 @@
         <xdr:cNvPr id="162" name="文字方塊 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDFDD05-8941-441E-9E83-F6BFC1C3B90F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C2939C-8950-4E31-8A8B-5F73AB151C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11528,7 +11528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2213376" y="8606189"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11578,7 +11578,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11587,7 +11587,7 @@
             </a:rPr>
             <a:t>50</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11617,7 +11617,7 @@
         <xdr:cNvPr id="163" name="直線接點 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86D7DC1-C39F-416B-A5C7-5FA99CCF16F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F33CC6-A265-42C9-AE5A-C3AD9CAAC3FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11672,7 +11672,7 @@
         <xdr:cNvPr id="164" name="直線接點 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2F6933-8892-4393-AA19-F5067BEEA839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE646975-DF8A-425C-9736-1FB8C2B9443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11727,7 +11727,7 @@
         <xdr:cNvPr id="165" name="直線接點 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015F36FB-9593-424C-B379-E0D77C2D6E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D143A8E3-8218-4B1D-B0DE-CE0DD3E12D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11767,7 +11767,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136921</xdr:colOff>
+      <xdr:colOff>141923</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>80428</xdr:rowOff>
     </xdr:from>
@@ -11782,7 +11782,7 @@
         <xdr:cNvPr id="166" name="文字方塊 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167D0B47-63FA-4D29-803E-9130D4429953}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98299E1B-E26C-455D-B7DC-18F341309895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11790,8 +11790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1279921" y="8910103"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1284923" y="8910103"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11841,7 +11841,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11850,7 +11850,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11865,13 +11865,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
+      <xdr:colOff>561644</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832968</xdr:colOff>
+      <xdr:colOff>829218</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>209726</xdr:rowOff>
     </xdr:to>
@@ -11880,7 +11880,7 @@
         <xdr:cNvPr id="167" name="文字方塊 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C1A1F8-15A7-4989-9EC2-7D83D40A3A91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065C24EA-9DF6-483A-A26F-651CF50609D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11888,8 +11888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700893" y="8906320"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704644" y="8906320"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11939,7 +11939,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11948,7 +11948,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -11969,7 +11969,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1252917</xdr:colOff>
+      <xdr:colOff>1247915</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>369821</xdr:rowOff>
     </xdr:to>
@@ -11978,7 +11978,7 @@
         <xdr:cNvPr id="168" name="文字方塊 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4217B1B-2ABD-4D58-9592-5DEB3DB432EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EDA3A4-4E96-4183-87B3-D973B10FD00E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11987,7 +11987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2212533" y="9066415"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12037,7 +12037,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12046,7 +12046,7 @@
             </a:rPr>
             <a:t>25</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -12076,7 +12076,7 @@
         <xdr:cNvPr id="169" name="直線接點 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F6DD10-1631-4ADC-B4D9-E8D686DB3C56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66983D2C-A236-4602-98BE-1EEBAC24CF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12131,7 +12131,7 @@
         <xdr:cNvPr id="170" name="直線接點 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD25DDD-F116-4A8B-9DE0-ADB21F74BEFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8760756-52BC-4853-A4A6-D9E5DFF4BE71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12171,7 +12171,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136358</xdr:colOff>
+      <xdr:colOff>141360</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78249</xdr:rowOff>
     </xdr:from>
@@ -12186,7 +12186,7 @@
         <xdr:cNvPr id="171" name="文字方塊 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E62FA8D-7BD4-4958-81D3-D10A399AC6C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BC2781-B138-43E5-AABF-6232A01F31A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12194,8 +12194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1279358" y="9346074"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1284360" y="9346074"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12245,7 +12245,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12254,7 +12254,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -12269,13 +12269,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561149</xdr:colOff>
+      <xdr:colOff>564899</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>242405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>836224</xdr:colOff>
+      <xdr:colOff>832473</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>375486</xdr:rowOff>
     </xdr:to>
@@ -12284,7 +12284,7 @@
         <xdr:cNvPr id="172" name="文字方塊 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECD8D87-CCCB-44FC-9D50-F21A3ADF95BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000DCBD4-B5F4-4524-96E6-01E42A766F68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12292,8 +12292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704149" y="9510230"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1707899" y="9510230"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12343,7 +12343,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12352,7 +12352,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -12382,7 +12382,7 @@
         <xdr:cNvPr id="173" name="直線接點 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3646990A-9D9A-4E21-9D3E-41A60DE7E4AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4974BD-2A27-4889-95BE-7D44526F736F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12437,7 +12437,7 @@
         <xdr:cNvPr id="174" name="直線接點 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC047CB7-74F8-4F2E-B62D-8BEE2BF27F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D92E124-76EB-4C11-9692-7F245E2F5637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12492,7 @@
         <xdr:cNvPr id="175" name="直線接點 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E74F28-3112-455D-B7F7-F8856CA2677E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6511B6E7-0EDF-4B19-9650-9EDCFB15AB6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12547,7 +12547,7 @@
         <xdr:cNvPr id="176" name="直線接點 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF3062-39B9-44A3-A761-6A4BAB7DC3D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF355B2A-276D-4F6A-9EED-DB3B4BA161FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12602,7 +12602,7 @@
         <xdr:cNvPr id="177" name="直線接點 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AD5E53-16F3-440A-A4F8-00D6CD994DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1132E91D-51BC-429E-B8EB-94148456A147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12657,7 +12657,7 @@
         <xdr:cNvPr id="178" name="直線接點 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E4B530-CC6D-4610-B561-C66ADD27DF2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB36D01-C74E-4BF0-B9FB-4E3EFD2DF51D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12712,7 +12712,7 @@
         <xdr:cNvPr id="179" name="弧形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4503802D-D3A2-45C3-A7D8-8C5CF111A77A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A188AE9-1097-4F0F-8892-8D1C75A7AD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12778,7 +12778,7 @@
         <xdr:cNvPr id="180" name="弧形 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E22CD9-379B-4F1C-AE31-0AB0B191721E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6B65B8-651A-4C6E-A25D-B4A83744F564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12844,7 +12844,7 @@
         <xdr:cNvPr id="181" name="弧形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA355CE-AF47-4B47-BB81-30F65B9020E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF77FF-7DF9-4328-8DCC-EC3EBC0754A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12910,7 +12910,7 @@
         <xdr:cNvPr id="182" name="弧形 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFA92A6-33A7-4842-ADD3-2F59DC36CA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9735EA2-AA3D-4FA4-938E-E10236CDB3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="183" name="弧形 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5A9EF1-3E91-4B36-A914-5A5BD3822C63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA26CC13-9F81-4B2D-A91E-F58A1F234E08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13027,13 +13027,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>242120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>375201</xdr:rowOff>
     </xdr:to>
@@ -13042,7 +13042,7 @@
         <xdr:cNvPr id="184" name="文字方塊 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FD8E7E-4964-443B-B9F4-733F8FCF15DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E247BC-54B2-439C-BC6E-A349CB875456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13050,8 +13050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="10386245"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="10386245"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13101,7 +13101,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13110,7 +13110,7 @@
             </a:rPr>
             <a:t>50</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -13131,7 +13131,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1275033</xdr:colOff>
+      <xdr:colOff>1267532</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>296553</xdr:rowOff>
     </xdr:to>
@@ -13140,7 +13140,7 @@
         <xdr:cNvPr id="185" name="文字方塊 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C579AE31-8C17-4EBD-8273-809FF8BAF7BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47FE5A3-3D22-450C-974B-13ABAA6F79F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13149,7 +13149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2142958" y="10307597"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13199,7 +13199,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13208,7 +13208,7 @@
             </a:rPr>
             <a:t>200</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -13223,13 +13223,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190895</xdr:rowOff>
     </xdr:to>
@@ -13238,7 +13238,7 @@
         <xdr:cNvPr id="186" name="文字方塊 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05671E0-E1DC-4E2E-96BB-E0B77271570C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAAAD8C7-9AAE-4262-8CCD-4E518272E328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13246,8 +13246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="10201939"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="10201939"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13297,7 +13297,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13306,7 +13306,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -13321,7 +13321,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50746</xdr:colOff>
+      <xdr:colOff>58440</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66842</xdr:rowOff>
     </xdr:from>
@@ -13336,7 +13336,7 @@
         <xdr:cNvPr id="187" name="文字方塊 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8CCDEF-A905-478B-9C99-5E0F91F0C0A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6D01F6-F301-49D5-B1EB-80571F2EBBED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13344,8 +13344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193746" y="10210967"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1201440" y="10210967"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13395,7 +13395,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13404,7 +13404,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -13419,7 +13419,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142236</xdr:colOff>
+      <xdr:colOff>147429</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>242120</xdr:rowOff>
     </xdr:from>
@@ -13434,7 +13434,7 @@
         <xdr:cNvPr id="188" name="文字方塊 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2030C52-A192-42FF-9288-2F83E6BB41DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD76951-7F9B-4A93-8422-6484AFFB8E6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13442,8 +13442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285236" y="10386245"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1290429" y="10386245"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13493,7 +13493,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13502,7 +13502,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -13532,7 +13532,7 @@
         <xdr:cNvPr id="189" name="直線接點 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F23962-0100-47B8-A8F6-807258CD6092}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F21846A-CB9F-4A7F-95FC-021803B0D025}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13587,7 +13587,7 @@
         <xdr:cNvPr id="190" name="直線接點 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944A7166-B518-4392-893A-78BCBAFEAE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6FEF93-2565-4941-97F3-1C0C3FC3A30A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13642,7 +13642,7 @@
         <xdr:cNvPr id="191" name="直線接點 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699BBD7D-DFB0-497D-B962-D8D933552C5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CC2E25-9CC7-4298-8A35-C6A3128E96BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13697,7 +13697,7 @@
         <xdr:cNvPr id="192" name="直線接點 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA38CF63-822E-43A4-8D25-CD673FA0D6AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C943D6-0702-4A84-8D7D-DECEC742DA4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13752,7 +13752,7 @@
         <xdr:cNvPr id="193" name="直線接點 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614760C9-F7FB-41CC-837E-D09AB48E82BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C55056-3297-4388-9DAD-54A4E9B3D6B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13807,7 +13807,7 @@
         <xdr:cNvPr id="194" name="弧形 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A64403-1882-434A-B1E6-DA7FDF62B6CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0655C9E0-5973-4892-B1FD-73A621839CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13873,7 +13873,7 @@
         <xdr:cNvPr id="195" name="弧形 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51F5971-3D8B-4615-8567-F21154082300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779B32B8-F211-4D6C-90B4-E1ACF41C9EB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13939,7 +13939,7 @@
         <xdr:cNvPr id="196" name="弧形 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A255FF05-3F1A-40AF-BC05-7B4FE27E89AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92CD4DD-A0C9-45F3-8AD5-6CCB97B3A73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14005,7 +14005,7 @@
         <xdr:cNvPr id="197" name="弧形 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A281E5D-B285-48DE-81A8-AA24EE513727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7350170-7DAD-4D59-8818-CFA2D7F5DB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14056,13 +14056,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603812</xdr:colOff>
+      <xdr:colOff>606313</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>243552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787196</xdr:colOff>
+      <xdr:colOff>784695</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>376633</xdr:rowOff>
     </xdr:to>
@@ -14071,7 +14071,7 @@
         <xdr:cNvPr id="198" name="文字方塊 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5804EC7F-056D-4CD9-B42E-3190ACA382C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F322D66-67CC-4680-9962-BFFA4112B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14079,8 +14079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746812" y="10825827"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749313" y="10825827"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14130,7 +14130,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14139,7 +14139,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14160,7 +14160,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1183833</xdr:colOff>
+      <xdr:colOff>1178831</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>376633</xdr:rowOff>
     </xdr:to>
@@ -14169,7 +14169,7 @@
         <xdr:cNvPr id="199" name="文字方塊 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2721D1-5614-4646-B7F3-95E67186594D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE952D6-9309-4C24-8F21-FAA432253B47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14178,7 +14178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2143449" y="10825827"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14228,7 +14228,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14237,7 +14237,7 @@
             </a:rPr>
             <a:t>50</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14252,13 +14252,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603812</xdr:colOff>
+      <xdr:colOff>606313</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>48053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787196</xdr:colOff>
+      <xdr:colOff>784695</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>181134</xdr:rowOff>
     </xdr:to>
@@ -14267,7 +14267,7 @@
         <xdr:cNvPr id="200" name="文字方塊 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2E5E2D-6EF4-47AE-80F9-E804A5ABC724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191B6468-97CF-4E9D-BC09-A105891747DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14275,8 +14275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746812" y="10630328"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749313" y="10630328"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14326,7 +14326,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14335,7 +14335,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14350,7 +14350,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>51321</xdr:colOff>
+      <xdr:colOff>59015</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>48053</xdr:rowOff>
     </xdr:from>
@@ -14365,7 +14365,7 @@
         <xdr:cNvPr id="201" name="文字方塊 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C392F5-7B87-466F-92A1-B7E78B84B253}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF77997-DBF0-4AE5-9AFE-52D9769C7F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14373,8 +14373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1194321" y="10630328"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1202015" y="10630328"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14424,7 +14424,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14433,7 +14433,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14454,7 +14454,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1329919</xdr:colOff>
+      <xdr:colOff>1322225</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>183385</xdr:rowOff>
     </xdr:to>
@@ -14463,7 +14463,7 @@
         <xdr:cNvPr id="202" name="文字方塊 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201C3D79-3E1B-480F-B67C-F845A7C93F40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26EC855-33A1-4578-9000-6FEDBE34169A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14472,7 +14472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2135006" y="10632579"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14522,7 +14522,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14531,7 +14531,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14561,7 +14561,7 @@
         <xdr:cNvPr id="203" name="直線接點 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D60F90-B019-4917-A4AA-B1187A2C5578}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE93754-1D97-4D8E-9644-34060D7BD405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14616,7 +14616,7 @@
         <xdr:cNvPr id="204" name="直線接點 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B0218A-EEF4-4D7A-8333-62F34D42D9A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8A28D7-5299-4119-A129-829A39C853FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14671,7 +14671,7 @@
         <xdr:cNvPr id="205" name="直線接點 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B291E5-9776-4161-B6BE-AB724620D98E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0325FE54-4124-43EB-BBBA-A24001532FCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14726,7 +14726,7 @@
         <xdr:cNvPr id="206" name="弧形 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9DEB21-C35D-43C5-95A6-35A5A909DD5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710BEB16-4501-4442-A847-026C667ABC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14792,7 +14792,7 @@
         <xdr:cNvPr id="207" name="弧形 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFFCADC-DB16-4061-8DD8-E8191FB4851B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1AA8C8-832E-4023-9138-52E05FC0B0CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14843,13 +14843,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>159641</xdr:rowOff>
     </xdr:to>
@@ -14858,7 +14858,7 @@
         <xdr:cNvPr id="208" name="文字方塊 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB55F0A-0F6E-4173-B25F-ADD3B7F1F13C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A3AAE5-86BD-44C3-BFFF-76CC8AB4E09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14866,8 +14866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="11046985"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="11046985"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14917,7 +14917,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14926,7 +14926,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14941,13 +14941,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>127468</xdr:colOff>
+      <xdr:colOff>132469</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>247427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>310852</xdr:colOff>
+      <xdr:colOff>310851</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>380508</xdr:rowOff>
     </xdr:to>
@@ -14956,7 +14956,7 @@
         <xdr:cNvPr id="209" name="文字方塊 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EAB271-950D-4B7E-9D38-CDA6A4E53C10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A7B855-FCBF-4DCB-AA7F-1754E30FDF0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14964,8 +14964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270468" y="11267852"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1275469" y="11267852"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15015,7 +15015,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15024,7 +15024,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -15045,7 +15045,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1186297</xdr:colOff>
+      <xdr:colOff>1181295</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>380201</xdr:rowOff>
     </xdr:to>
@@ -15054,7 +15054,7 @@
         <xdr:cNvPr id="210" name="文字方塊 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C64EBCB-F57B-47E4-93BF-BF9F6B1A5E31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146E75F8-7C45-4039-B9FA-C9A66E28EE64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15063,7 +15063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145913" y="11267545"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15113,7 +15113,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15122,7 +15122,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -15137,7 +15137,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155580</xdr:colOff>
+      <xdr:colOff>160773</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26560</xdr:rowOff>
     </xdr:from>
@@ -15152,7 +15152,7 @@
         <xdr:cNvPr id="211" name="文字方塊 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69632690-5023-498F-9124-1881B6C1E5C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050B9C26-F7F7-41C4-81B1-E28619F09970}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15160,8 +15160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1298580" y="11046985"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1303773" y="11046985"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15211,7 +15211,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15220,7 +15220,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -15241,7 +15241,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1333452</xdr:colOff>
+      <xdr:colOff>1325758</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>159641</xdr:rowOff>
     </xdr:to>
@@ -15250,7 +15250,7 @@
         <xdr:cNvPr id="212" name="文字方塊 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF72964-58B2-4523-9A54-4657234AE158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EC04B0-9833-42F4-BAB0-791CA0C466B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15259,7 +15259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2138539" y="11046985"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15309,7 +15309,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15318,7 +15318,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -15348,7 +15348,7 @@
         <xdr:cNvPr id="213" name="直線接點 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED65217A-C760-47BD-8131-29B5C4B9BF2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74CC93-40BE-46E4-BDFB-2DA649F45E8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15403,7 +15403,7 @@
         <xdr:cNvPr id="214" name="直線接點 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B955028-196F-4420-99B5-AA5610A897A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB15DF7D-2374-43CD-8C89-2F2ADE20933D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15458,7 +15458,7 @@
         <xdr:cNvPr id="215" name="直線接點 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A33D19E-F049-460D-A610-E75653A05D1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF15F46-C1C0-4D09-A718-B1247025891F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15513,7 +15513,7 @@
         <xdr:cNvPr id="216" name="直線接點 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219EDF0D-68F9-4034-880D-A4902CA7A3DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6B4AA0-99CA-456B-BB09-27907EC0BA25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15568,7 +15568,7 @@
         <xdr:cNvPr id="217" name="直線接點 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E11B8D3-A4E9-45A1-821B-8E934CC1F6A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BE0319-C3E0-410B-B035-8928A3C55E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15623,7 +15623,7 @@
         <xdr:cNvPr id="218" name="直線接點 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D21CB4-C22E-4039-9707-A4E18C05D89E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CB50B3-4B4D-4336-9BF9-BF04F2A99537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15678,7 +15678,7 @@
         <xdr:cNvPr id="219" name="弧形 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A77FBA2E-9BB7-436F-9B6D-F13D0AB95A05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87959877-426D-4820-8C7F-3EC75D47A8FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15744,7 +15744,7 @@
         <xdr:cNvPr id="220" name="弧形 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E6B707-DB75-4A00-A906-EB630ED94881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17726466-3A83-4FA9-9A9C-A9082E013B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15810,7 +15810,7 @@
         <xdr:cNvPr id="221" name="弧形 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04492A-8571-424C-A5E9-FA3D05F75D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A49EB7-0CDD-4589-B149-CEF657EB3172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15876,7 +15876,7 @@
         <xdr:cNvPr id="222" name="弧形 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944D3BF-0426-43C9-AB83-FF85E1A80C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DF51AE-C96C-44CE-9EF2-C3B44E004B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15942,7 +15942,7 @@
         <xdr:cNvPr id="223" name="弧形 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81221C9D-906D-4865-A971-74E603F859E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A9F8AB-D34E-489D-B382-EEB0F4249175}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15993,13 +15993,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>229777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>362858</xdr:rowOff>
     </xdr:to>
@@ -16008,7 +16008,7 @@
         <xdr:cNvPr id="224" name="文字方塊 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9648339C-6C1E-4EC4-AA5F-3A2E6CD4C44C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5C28C7-09E0-4292-8C7E-BF50DA88F559}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16016,8 +16016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="11688352"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="11688352"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16067,7 +16067,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16076,7 +16076,7 @@
             </a:rPr>
             <a:t>80</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -16097,7 +16097,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1275637</xdr:colOff>
+      <xdr:colOff>1268136</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>284396</xdr:rowOff>
     </xdr:to>
@@ -16106,7 +16106,7 @@
         <xdr:cNvPr id="225" name="文字方塊 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1E5BC6-C839-4C72-A89D-E67329B74384}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4143FA64-57E5-4C98-AFFF-6FF5576BC9B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16115,7 +16115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2143562" y="11609890"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16165,7 +16165,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16174,7 +16174,7 @@
             </a:rPr>
             <a:t>100</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -16189,13 +16189,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638072</xdr:colOff>
+      <xdr:colOff>640573</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>48378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>821456</xdr:colOff>
+      <xdr:colOff>818955</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>181459</xdr:rowOff>
     </xdr:to>
@@ -16204,7 +16204,7 @@
         <xdr:cNvPr id="226" name="文字方塊 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B28A991-5C01-48F0-B9D6-3799484BE40A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587C3AE7-3C1F-453B-A39C-2895D26A814C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16212,8 +16212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781072" y="11506953"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1783573" y="11506953"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16263,7 +16263,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16272,7 +16272,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -16287,7 +16287,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49505</xdr:colOff>
+      <xdr:colOff>57199</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>44493</xdr:rowOff>
     </xdr:from>
@@ -16302,7 +16302,7 @@
         <xdr:cNvPr id="227" name="文字方塊 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72734FA6-9C6A-48D8-B27D-6AA459DF4F5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F108C24-6118-4029-AE02-24B574D8E07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16310,8 +16310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1192505" y="11503068"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1200199" y="11503068"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16361,7 +16361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16370,7 +16370,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -16385,7 +16385,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49820</xdr:colOff>
+      <xdr:colOff>57514</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>228502</xdr:rowOff>
     </xdr:from>
@@ -16400,7 +16400,7 @@
         <xdr:cNvPr id="228" name="文字方塊 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59473C21-D601-4257-B444-A6B1EB12CDD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C28819C-9361-4034-B63B-4ED670B4BD58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16408,8 +16408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1192820" y="11687077"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1200514" y="11687077"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16459,7 +16459,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16468,7 +16468,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -16498,7 +16498,7 @@
         <xdr:cNvPr id="229" name="直線接點 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB5AC96-4C08-41A3-B16A-8DE57336CF5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8AF783-8A55-4F72-89CE-43EEC67FCC00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16553,7 +16553,7 @@
         <xdr:cNvPr id="230" name="直線接點 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55277959-7C09-4858-A11D-4A3A606B3702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF18689E-298E-4A44-B497-4709B39C2E15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16608,7 +16608,7 @@
         <xdr:cNvPr id="231" name="直線接點 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2278991B-3EFD-4ACC-8C6B-575A4B95296F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F867DA-5B93-4E5A-94DA-6679D2F094CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16663,7 +16663,7 @@
         <xdr:cNvPr id="232" name="直線接點 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A54AB3D-C7B4-431A-90CD-521A6B5CC3BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BD48F3-A8E0-416C-89D0-39B103E6853A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16718,7 +16718,7 @@
         <xdr:cNvPr id="233" name="直線接點 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2478B40E-721B-4F6B-90C9-B86009E357D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74421951-E038-4DC4-9B2F-DC0C6214A0DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16773,7 +16773,7 @@
         <xdr:cNvPr id="234" name="直線接點 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94577201-65A4-454E-ADDD-F080AD897D65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F02FF5-FA76-4D8F-9232-4E94E9CC1E16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16828,7 +16828,7 @@
         <xdr:cNvPr id="235" name="弧形 234">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1AE82A-3780-44D8-B5BD-1A75677777C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872DDA9A-0F7D-4642-90C2-B44DD174A114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16894,7 +16894,7 @@
         <xdr:cNvPr id="236" name="弧形 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44742B6-41F4-46A7-9E69-DB86403DEEBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A7F168-FDD8-4A62-8B8A-EFD47E44EE29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16960,7 +16960,7 @@
         <xdr:cNvPr id="237" name="弧形 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9487EF30-0E0D-44D5-ABF7-326285190598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA049E2-EC73-4E3F-A11B-9629EA996996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17026,7 +17026,7 @@
         <xdr:cNvPr id="238" name="弧形 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DC70E5-6E25-4AC7-9A00-5371A39489E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEDD45B-C254-4A53-ADB8-E5254ADA4A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17092,7 +17092,7 @@
         <xdr:cNvPr id="239" name="弧形 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ABD31F-352C-49F2-810D-C500796055CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533A1FD-FEF0-4C38-A37D-2296D7817A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17143,13 +17143,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>229777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>362858</xdr:rowOff>
     </xdr:to>
@@ -17158,7 +17158,7 @@
         <xdr:cNvPr id="240" name="文字方塊 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7073B54B-713B-454F-A24B-C1B2E4B15A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B448BCE-CF33-4F6B-B86B-D9EA2E2A2C83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17166,8 +17166,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="12126502"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="12126502"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17217,7 +17217,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17226,7 +17226,7 @@
             </a:rPr>
             <a:t>80</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17247,7 +17247,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1275637</xdr:colOff>
+      <xdr:colOff>1268136</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>284396</xdr:rowOff>
     </xdr:to>
@@ -17256,7 +17256,7 @@
         <xdr:cNvPr id="241" name="文字方塊 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C88F72C-1CE3-4072-AAD9-11A688A0A27A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43469592-5616-45E0-AE44-091598A32980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17265,7 +17265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2143562" y="12048040"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17315,7 +17315,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17324,7 +17324,7 @@
             </a:rPr>
             <a:t>100</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17339,13 +17339,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638072</xdr:colOff>
+      <xdr:colOff>640573</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>48378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>821456</xdr:colOff>
+      <xdr:colOff>818955</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>181459</xdr:rowOff>
     </xdr:to>
@@ -17354,7 +17354,7 @@
         <xdr:cNvPr id="242" name="文字方塊 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD22F469-DD26-4659-9806-4151DDDDF6A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3B9492-5B6E-414F-89AA-62FD84C7EAC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17362,8 +17362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781072" y="11945103"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1783573" y="11945103"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17413,7 +17413,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17422,7 +17422,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17437,7 +17437,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49505</xdr:colOff>
+      <xdr:colOff>57199</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>44493</xdr:rowOff>
     </xdr:from>
@@ -17452,7 +17452,7 @@
         <xdr:cNvPr id="243" name="文字方塊 242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E58028-DD61-4E17-9611-4416040F1C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AA22AC-2EF4-4F26-86AF-FA3933686269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17460,8 +17460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1192505" y="11941218"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1200199" y="11941218"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17511,7 +17511,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17520,7 +17520,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17535,7 +17535,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49820</xdr:colOff>
+      <xdr:colOff>57514</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>228502</xdr:rowOff>
     </xdr:from>
@@ -17550,7 +17550,7 @@
         <xdr:cNvPr id="244" name="文字方塊 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F6D391-3DAC-47B7-AF87-A61DB91BD1BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26406B9-1B0B-4BD9-A492-FA77680DA5A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17558,8 +17558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1192820" y="12125227"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1200514" y="12125227"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17609,7 +17609,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17618,7 +17618,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17648,7 +17648,7 @@
         <xdr:cNvPr id="245" name="直線接點 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58E4430-B836-4183-B0E6-2F6717DDB21A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE0184C-2B12-44D2-9717-FAA3C779F643}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17703,7 +17703,7 @@
         <xdr:cNvPr id="246" name="直線接點 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957E0A00-52E3-47A4-A3DA-1684594AC383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7395B8E1-C2F9-483F-BBE2-00558124F240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17758,7 +17758,7 @@
         <xdr:cNvPr id="247" name="直線接點 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBA8E03-4F1A-4484-9911-B0A725B160E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC64171-2569-46E6-90A0-087E69C6E497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17813,7 +17813,7 @@
         <xdr:cNvPr id="248" name="直線接點 247">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF353ED7-DB57-42DE-981D-02FC4B81DEC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189FBEF6-84CF-441A-921C-5492AB49BB6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17868,7 +17868,7 @@
         <xdr:cNvPr id="249" name="弧形 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD6D9EE-EE18-4C0C-AC25-4A80893AB70C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09455BB5-BE66-4199-A797-E5FC1BB10F38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17934,7 +17934,7 @@
         <xdr:cNvPr id="250" name="弧形 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35C1664-3687-4F44-93F4-F91A4DA87F59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0062418-C5E2-41FC-9FBC-6E680D209678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17985,7 +17985,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>93044</xdr:colOff>
+      <xdr:colOff>100545</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>434763</xdr:rowOff>
     </xdr:from>
@@ -18000,7 +18000,7 @@
         <xdr:cNvPr id="251" name="文字方塊 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B815C4EF-EBA9-46E0-9F9B-56DCE2FAD9E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B8022F4-36D8-446F-A9FC-326AAEC0491E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18008,8 +18008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1236044" y="12769638"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1243545" y="12769638"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18059,7 +18059,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18068,7 +18068,7 @@
             </a:rPr>
             <a:t>125</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18083,13 +18083,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609308</xdr:colOff>
+      <xdr:colOff>611809</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>72734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>792692</xdr:colOff>
+      <xdr:colOff>790191</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>205815</xdr:rowOff>
     </xdr:to>
@@ -18098,7 +18098,7 @@
         <xdr:cNvPr id="252" name="文字方塊 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0C6D54-46CF-40E2-A208-BF3CDF0407F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B780179-F8B5-4C6C-8185-24C4FA865C7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18106,8 +18106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752308" y="12407609"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1754809" y="12407609"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18157,7 +18157,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18166,7 +18166,7 @@
             </a:rPr>
             <a:t>40</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18187,7 +18187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1290202</xdr:colOff>
+      <xdr:colOff>1282701</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>562955</xdr:rowOff>
     </xdr:to>
@@ -18196,7 +18196,7 @@
         <xdr:cNvPr id="253" name="文字方塊 252">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA45B8F-8250-4B98-A90E-9D3C501FAE0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F269B751-EA6F-4B26-9007-31D79F8A9B14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18205,7 +18205,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2158127" y="12764749"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18255,7 +18255,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18264,7 +18264,7 @@
             </a:rPr>
             <a:t>125</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18279,13 +18279,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1058271</xdr:colOff>
+      <xdr:colOff>1060772</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>825908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1241655</xdr:colOff>
+      <xdr:colOff>1239154</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>958989</xdr:rowOff>
     </xdr:to>
@@ -18294,7 +18294,7 @@
         <xdr:cNvPr id="254" name="文字方塊 253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A36A24-0C59-47E7-B4E7-CEEE12E17562}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816AE448-BF8F-4F76-8B0F-E0D63B24A5EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18302,8 +18302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2201271" y="13160783"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="2203772" y="13160783"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18353,7 +18353,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18362,7 +18362,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18392,7 +18392,7 @@
         <xdr:cNvPr id="255" name="直線接點 254">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF63BD71-2601-4896-97F6-FB09BF7E3885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36F60FE-8E08-42EB-ADF1-FAD8829CC794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18447,7 +18447,7 @@
         <xdr:cNvPr id="256" name="直線接點 255">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A21594-C479-41DC-9B14-8EF3978B2BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96D3919-EF05-402C-9333-E2BA298838E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18502,7 +18502,7 @@
         <xdr:cNvPr id="257" name="直線接點 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A48E3F-2FD1-41E5-BE3B-703BAC583B5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF855C1D-3590-4FF2-B0CC-2E6A99B57028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18557,7 +18557,7 @@
         <xdr:cNvPr id="258" name="直線接點 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF89D2B-109C-4591-AE03-057CD264DB8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D8D67E-E625-488F-8BA1-1A985EFCC298}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18612,7 +18612,7 @@
         <xdr:cNvPr id="259" name="直線接點 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6723D59A-4AE3-4888-8131-1B367E324610}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2534862-037E-4AAD-A77A-E9F648D73CDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18667,7 +18667,7 @@
         <xdr:cNvPr id="260" name="弧形 259">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7329F7B1-B494-41F3-BE2D-E8AA67EC510B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3BA9AE-81AA-41BF-9510-BDC67CB0E724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18733,7 +18733,7 @@
         <xdr:cNvPr id="261" name="弧形 260">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFA14A6-FBEB-4844-97B6-E0A13378F45D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4866FDA-176D-406B-936B-A257A39D3F89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18784,13 +18784,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>179082</xdr:colOff>
+      <xdr:colOff>181583</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>793507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>362466</xdr:colOff>
+      <xdr:colOff>359965</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>926588</xdr:rowOff>
     </xdr:to>
@@ -18799,7 +18799,7 @@
         <xdr:cNvPr id="262" name="文字方塊 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2636A22-684D-41B9-8B31-253AB5A56565}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89964BD6-71C7-4164-8FD0-0A246609986E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18807,8 +18807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1322082" y="14138032"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1324583" y="14138032"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18858,7 +18858,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18867,7 +18867,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18882,7 +18882,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>185132</xdr:colOff>
+      <xdr:colOff>190134</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>423325</xdr:rowOff>
     </xdr:from>
@@ -18897,7 +18897,7 @@
         <xdr:cNvPr id="263" name="文字方塊 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874A7564-7F03-4071-AA30-9D6326FE136D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EAB27E-B3A0-4DA1-B5B1-645F93EAE895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18905,8 +18905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1328132" y="13767850"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1333134" y="13767850"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18956,7 +18956,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18965,7 +18965,7 @@
             </a:rPr>
             <a:t>19</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18980,13 +18980,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603527</xdr:colOff>
+      <xdr:colOff>606028</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>79150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>786911</xdr:colOff>
+      <xdr:colOff>784410</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>212231</xdr:rowOff>
     </xdr:to>
@@ -18995,7 +18995,7 @@
         <xdr:cNvPr id="264" name="文字方塊 263">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DA21ED-E3AA-4146-ABF7-7C67C3B94CCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8574C3C-F76C-4B5B-8311-B144002C99C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19003,8 +19003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746527" y="13423675"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749028" y="13423675"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19054,7 +19054,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19063,7 +19063,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19084,7 +19084,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1198095</xdr:colOff>
+      <xdr:colOff>1193093</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>556779</xdr:rowOff>
     </xdr:to>
@@ -19093,7 +19093,7 @@
         <xdr:cNvPr id="265" name="文字方塊 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD75A32-F2CF-4A5D-AF2A-39934C314718}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A27526-F9B2-49E4-8595-E8F4994E28CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19102,7 +19102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2157711" y="13768223"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19152,7 +19152,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19161,7 +19161,7 @@
             </a:rPr>
             <a:t>19</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19176,13 +19176,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1060207</xdr:colOff>
+      <xdr:colOff>1062708</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>744773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1243591</xdr:colOff>
+      <xdr:colOff>1241090</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>877854</xdr:rowOff>
     </xdr:to>
@@ -19191,7 +19191,7 @@
         <xdr:cNvPr id="266" name="文字方塊 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCC5EAD-0C58-4258-9177-89BA0BA12587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD06CCFE-162A-44E0-A02A-E4BF36667CEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19199,8 +19199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203207" y="14089298"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="2205708" y="14089298"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19250,7 +19250,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19259,7 +19259,7 @@
             </a:rPr>
             <a:t>20</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19289,7 +19289,7 @@
         <xdr:cNvPr id="267" name="直線接點 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780EDED5-96A4-46CB-B5F6-D8DFBA3665FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22911510-34AB-4702-9A10-80E4C494BFD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19344,7 +19344,7 @@
         <xdr:cNvPr id="268" name="直線接點 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028F3BC4-1ED0-4EC4-81F5-5A1D93869469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47104CA4-68F7-4BFA-8670-85056405EB22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,7 +19399,7 @@
         <xdr:cNvPr id="269" name="直線接點 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414D9A80-A8E1-4888-BB46-CAFC44C0E661}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF272A1-0B46-4AE7-BBE2-132A39711931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19454,7 +19454,7 @@
         <xdr:cNvPr id="270" name="直線接點 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DA5179-C0ED-4A92-B781-27EEF9774606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0433D369-B8C3-4A01-A048-49067DF4ACCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19509,7 +19509,7 @@
         <xdr:cNvPr id="271" name="直線接點 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFBFCD4-078F-4E1C-A705-21C275553943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1592C0-2B85-409E-A5C1-1C1B8191EAE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19564,7 +19564,7 @@
         <xdr:cNvPr id="272" name="弧形 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ECF357-339B-4519-AC1D-206263CE8666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB4C0CB-5FD5-4096-BB8C-7DE22C0748CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19630,7 +19630,7 @@
         <xdr:cNvPr id="273" name="弧形 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CAAA33-7B26-4C8A-9C6C-9FFCC7E887B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8576FEEA-9079-41C4-B6BF-CC1B7BD4DB49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19681,13 +19681,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>179082</xdr:colOff>
+      <xdr:colOff>181583</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>793507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>362466</xdr:colOff>
+      <xdr:colOff>359965</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>926588</xdr:rowOff>
     </xdr:to>
@@ -19696,7 +19696,7 @@
         <xdr:cNvPr id="274" name="文字方塊 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D50ADF2-7FCC-4862-842A-BB8443824B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B7FD25-E22F-48AB-94A6-6EAAFC5E8D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19704,8 +19704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1322082" y="15147682"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1324583" y="15147682"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19755,7 +19755,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19764,7 +19764,7 @@
             </a:rPr>
             <a:t>21</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19779,7 +19779,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>185132</xdr:colOff>
+      <xdr:colOff>190134</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>423325</xdr:rowOff>
     </xdr:from>
@@ -19794,7 +19794,7 @@
         <xdr:cNvPr id="275" name="文字方塊 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3A84C2-E51F-4162-887F-CE85DB2942BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97253E9C-C6F3-4E4F-8429-8A4377409DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19802,8 +19802,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1328132" y="14777500"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1333134" y="14777500"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19853,7 +19853,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19862,7 +19862,7 @@
             </a:rPr>
             <a:t>19</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19877,13 +19877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603527</xdr:colOff>
+      <xdr:colOff>606028</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>79150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>786911</xdr:colOff>
+      <xdr:colOff>784410</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>212231</xdr:rowOff>
     </xdr:to>
@@ -19892,7 +19892,7 @@
         <xdr:cNvPr id="276" name="文字方塊 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B8A4C3-7C05-46EB-B1DF-2D8CAC78E891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215F7D83-21AE-40AB-95FA-05F44196B5E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19900,8 +19900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746527" y="14433325"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749028" y="14433325"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19951,7 +19951,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19960,7 +19960,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -19981,7 +19981,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1198095</xdr:colOff>
+      <xdr:colOff>1193093</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>556779</xdr:rowOff>
     </xdr:to>
@@ -19990,7 +19990,7 @@
         <xdr:cNvPr id="277" name="文字方塊 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDABEA99-6F9D-4D27-B842-FC0AA581CB70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817F6765-34BD-42F6-88EA-04AF0D099BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19999,7 +19999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2157711" y="14777873"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20049,7 +20049,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20058,7 +20058,7 @@
             </a:rPr>
             <a:t>19</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20073,13 +20073,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1060207</xdr:colOff>
+      <xdr:colOff>1062708</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>744773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1243591</xdr:colOff>
+      <xdr:colOff>1241090</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>877854</xdr:rowOff>
     </xdr:to>
@@ -20088,7 +20088,7 @@
         <xdr:cNvPr id="278" name="文字方塊 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8912CBF-21BB-4442-8DF4-E43EFB8CA8A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CFE416-14E4-49AF-945D-A90737E0600A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20096,8 +20096,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2203207" y="15098948"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="2205708" y="15098948"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20147,7 +20147,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20156,7 +20156,7 @@
             </a:rPr>
             <a:t>21</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20186,7 +20186,7 @@
         <xdr:cNvPr id="279" name="直線接點 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6A1F44-6C97-4D11-85E4-D413B1F9BC20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED852A2-CC3E-4A4A-8ACB-16B45CA69A4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20241,7 +20241,7 @@
         <xdr:cNvPr id="280" name="直線接點 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01020813-F977-4241-9FFB-7B1FC1A9C8E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AF9E99-5D44-435F-8352-BB471437A4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20296,7 +20296,7 @@
         <xdr:cNvPr id="281" name="直線接點 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F1848E-97DA-447F-A3D9-CD10F33401ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2002FE09-9654-4A93-BB67-92C6C1E958C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20351,7 +20351,7 @@
         <xdr:cNvPr id="282" name="弧形 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19511700-CBE6-4D3D-9FAD-BE75FA7214A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9886990C-8EB8-49EE-9E1D-75582A630D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20417,7 +20417,7 @@
         <xdr:cNvPr id="283" name="弧形 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC91AEC2-DEAF-4EBD-906F-7C534EB99B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5F148C-D8CE-453F-93AB-BB36CAD3F5C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20468,13 +20468,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>96825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>229906</xdr:rowOff>
     </xdr:to>
@@ -20483,7 +20483,7 @@
         <xdr:cNvPr id="284" name="文字方塊 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2102EAF-88D3-40CC-B2B6-9C7CE381751E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4437D67-F4CA-4AA0-9D35-BC5EC1B24770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20491,8 +20491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="15460650"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="15460650"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20542,7 +20542,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20551,7 +20551,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20566,7 +20566,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296553</xdr:colOff>
+      <xdr:colOff>298797</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>356270</xdr:rowOff>
     </xdr:from>
@@ -20581,7 +20581,7 @@
         <xdr:cNvPr id="285" name="文字方塊 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB17AFC5-F732-43A6-B5B9-8297E8EFE79C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A933F3B5-C2A8-4398-8842-074573280764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20589,8 +20589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1439553" y="15720095"/>
-          <a:ext cx="82587" cy="119841"/>
+          <a:off x="1441797" y="15720095"/>
+          <a:ext cx="80343" cy="119841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20640,7 +20640,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1081" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1081">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20649,7 +20649,7 @@
             </a:rPr>
             <a:t>7</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1081" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1081">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20664,13 +20664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>349174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>482255</xdr:rowOff>
     </xdr:to>
@@ -20679,7 +20679,7 @@
         <xdr:cNvPr id="286" name="文字方塊 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB656D8-54C1-4232-91C9-73115F80CAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6FA83A-1DBE-4F7B-A8E5-C0988245A8D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20687,8 +20687,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="15712999"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="15712999"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20738,7 +20738,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20747,7 +20747,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20768,7 +20768,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1100357</xdr:colOff>
+      <xdr:colOff>1097857</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>720072</xdr:rowOff>
     </xdr:to>
@@ -20777,7 +20777,7 @@
         <xdr:cNvPr id="287" name="文字方塊 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8918FBD0-8FCA-4539-9C78-1E9953ED5279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8DAC0A-CFE7-4AD5-B46D-AEDF00882FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20786,7 +20786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2151665" y="15950816"/>
-          <a:ext cx="91692" cy="133081"/>
+          <a:ext cx="89192" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20836,7 +20836,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20845,7 +20845,7 @@
             </a:rPr>
             <a:t>7</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20860,13 +20860,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>799750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>932831</xdr:rowOff>
     </xdr:to>
@@ -20875,7 +20875,7 @@
         <xdr:cNvPr id="288" name="文字方塊 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B22E0E0-3F39-4781-9528-9ACA083744AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B848C8-2C35-4D66-AA40-BAAED969E39D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20883,8 +20883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="16163575"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="16163575"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20934,7 +20934,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20943,7 +20943,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -20973,7 +20973,7 @@
         <xdr:cNvPr id="289" name="直線接點 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16547C5D-8564-4EA1-98E8-9A52ACC82A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A9C95C-CD13-45BA-84A4-CA59B4E14202}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21028,7 +21028,7 @@
         <xdr:cNvPr id="290" name="直線接點 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BFA9A3-5E08-4A55-B31B-08D784C1221E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E5D98C-F8DA-495D-A5A6-EA7EB243FF81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21083,7 +21083,7 @@
         <xdr:cNvPr id="291" name="直線接點 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB95C868-0D55-40A0-B4F9-991A9D4C9F2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4BEE1C-88C6-4044-8ABA-9182BCC217F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21138,7 +21138,7 @@
         <xdr:cNvPr id="292" name="直線接點 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0760DFFA-E48B-46D8-B233-67BA1FF221C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9981820D-73CD-4589-A8A0-E1B26E625D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21193,7 +21193,7 @@
         <xdr:cNvPr id="293" name="弧形 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9BDD39-5309-40DE-A753-AEF0A7F552E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DEAF34-BAF2-46E0-B5A6-7E5854315CBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21259,7 +21259,7 @@
         <xdr:cNvPr id="294" name="弧形 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35C73ED-8360-4D4E-A5E1-BFA837B3C078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3193A3-C149-4BA0-8342-F3E000DEBBF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21325,7 +21325,7 @@
         <xdr:cNvPr id="295" name="弧形 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6738A01E-D435-4AD7-9B2C-6749FEDEBEEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC20197-33D9-4D5C-AD1C-DE662DA39E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21376,13 +21376,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>798916</xdr:colOff>
+      <xdr:colOff>801417</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>830503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>982300</xdr:colOff>
+      <xdr:colOff>979799</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>963584</xdr:rowOff>
     </xdr:to>
@@ -21391,7 +21391,7 @@
         <xdr:cNvPr id="296" name="文字方塊 295">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0715E044-643B-496B-97C8-CE17D1FFF1B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB09C33-2A91-4605-ABA6-C28B32CEA9E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21399,8 +21399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1941916" y="17203978"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1944417" y="17203978"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21450,7 +21450,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21459,7 +21459,7 @@
             </a:rPr>
             <a:t>30</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -21474,7 +21474,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>48927</xdr:colOff>
+      <xdr:colOff>59379</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>625140</xdr:rowOff>
     </xdr:from>
@@ -21489,7 +21489,7 @@
         <xdr:cNvPr id="297" name="文字方塊 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CDAF65-23FF-4F4D-A290-A7FA63893CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6332F79F-5B36-4225-B339-5B75C4F2512A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21497,8 +21497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1191927" y="16998615"/>
-          <a:ext cx="419667" cy="133081"/>
+          <a:off x="1202379" y="16998615"/>
+          <a:ext cx="409215" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21548,7 +21548,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21557,7 +21557,7 @@
             </a:rPr>
             <a:t>H=19</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -21572,13 +21572,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>844762</xdr:colOff>
+      <xdr:colOff>846012</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>101643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>936454</xdr:colOff>
+      <xdr:colOff>935204</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>234724</xdr:rowOff>
     </xdr:to>
@@ -21587,7 +21587,7 @@
         <xdr:cNvPr id="298" name="文字方塊 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE57A2B-AAEF-4138-80A8-BD4280E5C932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FE2A68-61FD-466A-BA39-207667F71CBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21595,8 +21595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1987762" y="16475118"/>
-          <a:ext cx="91692" cy="133081"/>
+          <a:off x="1989012" y="16475118"/>
+          <a:ext cx="89192" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21646,7 +21646,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21655,7 +21655,7 @@
             </a:rPr>
             <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -21676,7 +21676,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1194355</xdr:colOff>
+      <xdr:colOff>1191855</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>433092</xdr:rowOff>
     </xdr:to>
@@ -21685,7 +21685,7 @@
         <xdr:cNvPr id="299" name="文字方塊 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1800846-EFCC-475B-AB01-E538F921D102}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4EC0469-8033-48C2-AF54-0B3C3465E2EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21694,7 +21694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2245663" y="16673486"/>
-          <a:ext cx="91692" cy="133081"/>
+          <a:ext cx="89192" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21744,7 +21744,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -21753,7 +21753,7 @@
             </a:rPr>
             <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -21783,7 +21783,7 @@
         <xdr:cNvPr id="300" name="直線接點 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE007BC-3D36-4129-AF8C-F8EABD6A2097}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9293EB1-1095-49F2-BEE9-F52AA7DDB885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21838,7 +21838,7 @@
         <xdr:cNvPr id="301" name="直線接點 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5709B3-5453-4DFD-8C1B-0170EE1BD923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00AB7A3-C8A3-4700-B59A-FA60A074541B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21893,7 +21893,7 @@
         <xdr:cNvPr id="302" name="直線接點 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C42DA1-516E-45E8-B06A-D961B76A14ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580EA467-D1E9-4CB3-9AC8-AE3A0860CD9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21948,7 +21948,7 @@
         <xdr:cNvPr id="303" name="弧形 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DB90C6-692C-4B8B-8F22-3E5494A7F884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1E1C42-31E5-4F9A-88AD-5077EA11618D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22014,7 +22014,7 @@
         <xdr:cNvPr id="304" name="弧形 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80B65D3-B69A-4FBE-8F06-A7EFCF8187CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF4B553-8759-4B90-A8F3-321CA2D2ACD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22065,13 +22065,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>26560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>159641</xdr:rowOff>
     </xdr:to>
@@ -22080,7 +22080,7 @@
         <xdr:cNvPr id="305" name="文字方塊 304">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE4C65-FACA-4C04-B357-9345183C9DB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B4E306-04C1-499D-92C6-C4292565C0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22088,8 +22088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="17409685"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="17409685"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22139,7 +22139,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22148,7 +22148,7 @@
             </a:rPr>
             <a:t>40</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22163,13 +22163,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>127468</xdr:colOff>
+      <xdr:colOff>132469</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>247427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>310852</xdr:colOff>
+      <xdr:colOff>310851</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>380508</xdr:rowOff>
     </xdr:to>
@@ -22178,7 +22178,7 @@
         <xdr:cNvPr id="306" name="文字方塊 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB216BD2-4067-466F-8487-B915CEC1F4B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4458BC-6A48-499D-BBF2-41D942E707C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22186,8 +22186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270468" y="17630552"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1275469" y="17630552"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22237,7 +22237,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22246,7 +22246,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22267,7 +22267,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1186297</xdr:colOff>
+      <xdr:colOff>1181295</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>380201</xdr:rowOff>
     </xdr:to>
@@ -22276,7 +22276,7 @@
         <xdr:cNvPr id="307" name="文字方塊 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5833CA2F-DA12-43BA-A5E3-58F8E55D1AD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69865FB-A9F0-4840-8907-7571F3170B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22285,7 +22285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145913" y="17630245"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22335,7 +22335,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22344,7 +22344,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22359,7 +22359,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155580</xdr:colOff>
+      <xdr:colOff>160773</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>26560</xdr:rowOff>
     </xdr:from>
@@ -22374,7 +22374,7 @@
         <xdr:cNvPr id="308" name="文字方塊 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64F8F13-1196-451E-BEDD-322320C213A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509AA529-1308-4D6C-AEA4-E3E7814CA70B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22382,8 +22382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1298580" y="17409685"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1303773" y="17409685"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22433,7 +22433,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22442,7 +22442,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22463,7 +22463,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1333452</xdr:colOff>
+      <xdr:colOff>1325758</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>159641</xdr:rowOff>
     </xdr:to>
@@ -22472,7 +22472,7 @@
         <xdr:cNvPr id="309" name="文字方塊 308">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CC2213-CF5B-49B9-ACC7-BB6BB010ACCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE5B220-2D5D-4EC4-A401-E07D0F4C0FD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22481,7 +22481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2138539" y="17409685"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22531,7 +22531,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22540,7 +22540,7 @@
             </a:rPr>
             <a:t>135°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22570,7 +22570,7 @@
         <xdr:cNvPr id="310" name="直線接點 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138B0058-7FCB-499C-98DF-2C6BF83BF06B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC91A62-22E9-433F-B174-D5F8C0195775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22625,7 +22625,7 @@
         <xdr:cNvPr id="311" name="直線接點 310">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6179FC8-1EDF-424E-B851-52407754230F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9584D9-9D26-46D8-A8A2-91C596B33F82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22680,7 +22680,7 @@
         <xdr:cNvPr id="312" name="直線接點 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAFC023-1F65-4625-AB3D-4D0C8448893B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE007BE4-93C6-40AC-A072-7FBCF6D26CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22735,7 +22735,7 @@
         <xdr:cNvPr id="313" name="弧形 312">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A507D6F4-18E3-4050-93C5-76B21D05853F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC801BDD-3FCA-4850-AF87-0031FBEA4B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22801,7 +22801,7 @@
         <xdr:cNvPr id="314" name="弧形 313">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E521D3CC-2C91-4B96-9A94-E3E06DB760B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B4E31F-9282-4B05-B526-CF97692AE8AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22852,13 +22852,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -22867,7 +22867,7 @@
         <xdr:cNvPr id="315" name="文字方塊 314">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4C98E0-B320-4C92-B8E8-51F3F45FE0A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE9249E-7AEB-4E19-B1C0-9C460023CF78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22875,8 +22875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="17854045"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="17854045"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22926,7 +22926,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -22935,7 +22935,7 @@
             </a:rPr>
             <a:t>41</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -22950,7 +22950,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>124320</xdr:colOff>
+      <xdr:colOff>129322</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>272478</xdr:rowOff>
     </xdr:from>
@@ -22965,7 +22965,7 @@
         <xdr:cNvPr id="316" name="文字方塊 315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9E99AA-E12F-4613-A894-54D20C747500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789C2F84-EF98-40BA-9885-2079C71C6774}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22973,8 +22973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1267320" y="18093753"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1272322" y="18093753"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23024,7 +23024,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23033,7 +23033,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23054,7 +23054,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1189457</xdr:colOff>
+      <xdr:colOff>1184455</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>402778</xdr:rowOff>
     </xdr:to>
@@ -23063,7 +23063,7 @@
         <xdr:cNvPr id="317" name="文字方塊 316">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF2C70-7D41-4316-B58F-7F9DB1C98093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D95710-47DA-411D-8218-BE5E800073BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23072,7 +23072,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2149073" y="18090972"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23122,7 +23122,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23131,7 +23131,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23146,7 +23146,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141538</xdr:colOff>
+      <xdr:colOff>146731</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
@@ -23161,7 +23161,7 @@
         <xdr:cNvPr id="318" name="文字方塊 317">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19CAB80-8B81-48A3-9695-D7961EE9BBD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1084317-5A5B-4476-95FD-DB8BD73D9AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23169,8 +23169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1284538" y="17854045"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1289731" y="17854045"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23220,7 +23220,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23229,7 +23229,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23250,7 +23250,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1340826</xdr:colOff>
+      <xdr:colOff>1333132</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -23259,7 +23259,7 @@
         <xdr:cNvPr id="319" name="文字方塊 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0203EE0A-FE23-42EB-9366-885F5EF7A36A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6729895-0368-4F95-9C59-9C10A3E82006}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23268,7 +23268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145913" y="17854045"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23318,7 +23318,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23327,7 +23327,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23357,7 +23357,7 @@
         <xdr:cNvPr id="320" name="直線接點 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA8B758-F758-455D-9E37-51F761A7A707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5136B691-545C-46D8-AEF4-99C5AAF921F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23412,7 +23412,7 @@
         <xdr:cNvPr id="321" name="直線接點 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4AA1327-6C97-4C32-8B21-DC05B626E5AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4B3671-B4FC-4DAE-814C-F571B5BCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23467,7 +23467,7 @@
         <xdr:cNvPr id="322" name="直線接點 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F4A86-36A3-4FFC-ADD4-04B47875C37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B5C8C1-B52F-45A7-B9A4-79D28BE1366C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23522,7 +23522,7 @@
         <xdr:cNvPr id="323" name="弧形 322">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFD93EA-880E-4CB8-8624-8B56E250E322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F8E5C0-8DCD-4A85-B612-DE9891695846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23588,7 +23588,7 @@
         <xdr:cNvPr id="324" name="弧形 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871D4D7D-D463-4F67-8D26-64C7D42BDE05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCB4E72-E96E-45F5-A222-514104FD2138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23639,13 +23639,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -23654,7 +23654,7 @@
         <xdr:cNvPr id="325" name="文字方塊 324">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D960CD67-0CAA-45E3-82CD-EEFE545F6751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7593F6F-799B-4857-9496-3A1CEA11CA8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23662,8 +23662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="18292195"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="18292195"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23713,7 +23713,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23722,7 +23722,7 @@
             </a:rPr>
             <a:t>41</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23737,7 +23737,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>124320</xdr:colOff>
+      <xdr:colOff>129322</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>272478</xdr:rowOff>
     </xdr:from>
@@ -23752,7 +23752,7 @@
         <xdr:cNvPr id="326" name="文字方塊 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A17E801-C3A1-455C-89F6-2416AFE70252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E31AEB-4311-46AE-980F-C9F84D26F4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23760,8 +23760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1267320" y="18531903"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1272322" y="18531903"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23811,7 +23811,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23820,7 +23820,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23841,7 +23841,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1189457</xdr:colOff>
+      <xdr:colOff>1184455</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>402778</xdr:rowOff>
     </xdr:to>
@@ -23850,7 +23850,7 @@
         <xdr:cNvPr id="327" name="文字方塊 326">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1C1189-864D-4C19-B23F-69595DE16122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEDD290-473A-4BFB-81F5-3AF4BC3716AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23859,7 +23859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2149073" y="18529122"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23909,7 +23909,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -23918,7 +23918,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -23933,7 +23933,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141538</xdr:colOff>
+      <xdr:colOff>146731</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
@@ -23948,7 +23948,7 @@
         <xdr:cNvPr id="328" name="文字方塊 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5065A6-C9CD-455B-81A8-391B26C6A154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105CAC3C-20A9-4E38-A72B-D12A2054936A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23956,8 +23956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1284538" y="18292195"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1289731" y="18292195"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24007,7 +24007,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24016,7 +24016,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24037,7 +24037,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1340826</xdr:colOff>
+      <xdr:colOff>1333132</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -24046,7 +24046,7 @@
         <xdr:cNvPr id="329" name="文字方塊 328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2ACE97-C658-4AB7-A3B8-9CC6FF070498}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CA87BC-0DE4-4895-B890-EC85A9078E40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24055,7 +24055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145913" y="18292195"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24105,7 +24105,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24114,7 +24114,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24144,7 +24144,7 @@
         <xdr:cNvPr id="330" name="直線接點 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3C48A0-5213-4724-8CDD-991D80FD8002}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C172BC-62BF-46BC-8E11-F60029DD7290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24199,7 +24199,7 @@
         <xdr:cNvPr id="331" name="直線接點 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DE0DBF-C5A0-40A2-A421-5ABA5DCB4DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62D7FE5-B721-4898-9479-82C48318579C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24254,7 +24254,7 @@
         <xdr:cNvPr id="332" name="直線接點 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5847A88D-F553-41A0-9405-2F7505EE70CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6409A2E3-DEFF-4885-8B7C-F6CF627A653B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24309,7 +24309,7 @@
         <xdr:cNvPr id="333" name="弧形 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929EE0E7-8FF1-4550-BEF3-B86593C13000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D67BA5-BC51-4960-953D-4F3189621A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24375,7 +24375,7 @@
         <xdr:cNvPr id="334" name="弧形 333">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F86E44-E8F8-4C66-B94C-E52E8C1F4C70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA18305-ED68-4AB9-B9CA-30531F3BEFFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24426,13 +24426,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -24441,7 +24441,7 @@
         <xdr:cNvPr id="335" name="文字方塊 334">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2370812-A2E3-4223-9EAE-DDD26F7DF86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63C2BA4-8B25-4CE1-B4D2-F5AC761FAD11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24449,8 +24449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="18730345"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="18730345"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24500,7 +24500,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24509,7 +24509,7 @@
             </a:rPr>
             <a:t>41</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24524,7 +24524,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>124320</xdr:colOff>
+      <xdr:colOff>129322</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>272478</xdr:rowOff>
     </xdr:from>
@@ -24539,7 +24539,7 @@
         <xdr:cNvPr id="336" name="文字方塊 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8FE6FB-741C-4A2C-8065-80839A5C6160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178E711E-E030-4BB2-BFBA-32EEE6896451}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24547,8 +24547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1267320" y="18970053"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1272322" y="18970053"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24598,7 +24598,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24607,7 +24607,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24628,7 +24628,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1189457</xdr:colOff>
+      <xdr:colOff>1184455</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>402778</xdr:rowOff>
     </xdr:to>
@@ -24637,7 +24637,7 @@
         <xdr:cNvPr id="337" name="文字方塊 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF76851-B254-4647-B102-87103C0069E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F9D6E8-EDC8-4569-AB30-204D6CA68028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24646,7 +24646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2149073" y="18967272"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24696,7 +24696,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24705,7 +24705,7 @@
             </a:rPr>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24720,7 +24720,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141538</xdr:colOff>
+      <xdr:colOff>146731</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32770</xdr:rowOff>
     </xdr:from>
@@ -24735,7 +24735,7 @@
         <xdr:cNvPr id="338" name="文字方塊 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB4F85-40AF-4CD4-868E-DBE50180CB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F64E37C-22BA-4495-89FC-C2734C931992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24743,8 +24743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1284538" y="18730345"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1289731" y="18730345"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24794,7 +24794,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24803,7 +24803,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24824,7 +24824,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1340826</xdr:colOff>
+      <xdr:colOff>1333132</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165851</xdr:rowOff>
     </xdr:to>
@@ -24833,7 +24833,7 @@
         <xdr:cNvPr id="339" name="文字方塊 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124C5C40-B0CD-4AC2-8069-6EF0240309C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC8E1AC-547B-4E57-B9A5-AA4B54A288A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24842,7 +24842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2145913" y="18730345"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24892,7 +24892,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -24901,7 +24901,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -24931,7 +24931,7 @@
         <xdr:cNvPr id="340" name="直線接點 339">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C11D98-C499-4A60-8ADB-A6B8641E77F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C7E652-A16C-41A3-B6D7-91A7A098859C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24971,13 +24971,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>557358</xdr:colOff>
+      <xdr:colOff>561109</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>832433</xdr:colOff>
+      <xdr:colOff>828683</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>283576</xdr:rowOff>
     </xdr:to>
@@ -24986,7 +24986,7 @@
         <xdr:cNvPr id="341" name="文字方塊 340">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FCBD63-F024-43C2-949C-D6967845206D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B74B286-02ED-4B7F-AED6-1699B9AD1B68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24994,8 +24994,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1700358" y="19286220"/>
-          <a:ext cx="275075" cy="133081"/>
+          <a:off x="1704109" y="19286220"/>
+          <a:ext cx="267574" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25045,7 +25045,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25054,7 +25054,7 @@
             </a:rPr>
             <a:t>150</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -25084,7 +25084,7 @@
         <xdr:cNvPr id="342" name="直線接點 341">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE30D4C-8E63-4BF1-9B6A-F7CDCBECAB53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F29A62-E1BC-4CDA-8EC5-0F240ACA2AE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25139,7 +25139,7 @@
         <xdr:cNvPr id="343" name="直線接點 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B562113-0FD2-4000-8522-C2909B5320BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1514A521-EBD3-4144-AC66-29D34818F966}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25194,7 +25194,7 @@
         <xdr:cNvPr id="344" name="直線接點 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6ED9F8-FA99-45A0-9D52-9379105D078D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823D4214-C3D1-4002-9EB6-960601DFB363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25249,7 +25249,7 @@
         <xdr:cNvPr id="345" name="直線接點 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376CB1A5-A803-4445-ACDA-E8D430F0A086}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70668E5B-CED0-45A2-9082-201C30C75864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25304,7 +25304,7 @@
         <xdr:cNvPr id="346" name="直線接點 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A1A5C6-D83B-4C51-8CBD-C60D9B3AA15E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5F522C-9507-44CB-9F9E-5C3F5B1CA766}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25359,7 +25359,7 @@
         <xdr:cNvPr id="347" name="弧形 346">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB3FDD-251F-4C51-8791-D61FD9E28C6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63BD19A-60BE-410E-9437-BD9A9AA1BC53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25425,7 +25425,7 @@
         <xdr:cNvPr id="348" name="弧形 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D866735-18B6-473E-A50D-B9A0A4B75E1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B02F0B6-E985-4860-936E-0689F36C0242}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25491,7 +25491,7 @@
         <xdr:cNvPr id="349" name="弧形 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7C2CCC-207A-4DEE-AC3F-0C16D112CA2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D408DB6B-8371-4000-9440-69DA82F7103B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25557,7 +25557,7 @@
         <xdr:cNvPr id="350" name="弧形 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D33DDB-BCD2-4E45-B34D-7D2F62FACC2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8999FCFA-E783-4296-A4C3-0A14B710EFA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25608,13 +25608,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>240130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>373211</xdr:rowOff>
     </xdr:to>
@@ -25623,7 +25623,7 @@
         <xdr:cNvPr id="351" name="文字方塊 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310DCD27-5D28-4CA9-955C-14805469768F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58D4961-D7E7-4C83-8A5A-DA90ADE4829E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25631,8 +25631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="19814005"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="19814005"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25682,7 +25682,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25691,7 +25691,7 @@
             </a:rPr>
             <a:t>60</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -25706,7 +25706,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136231</xdr:colOff>
+      <xdr:colOff>141233</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>240130</xdr:rowOff>
     </xdr:from>
@@ -25721,7 +25721,7 @@
         <xdr:cNvPr id="352" name="文字方塊 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BA94DD-5103-400C-8B5B-CD8937CBC6CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32480353-2E2A-447F-88AF-FA5A38E7FEAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25729,8 +25729,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1279231" y="19814005"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1284233" y="19814005"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25780,7 +25780,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25789,7 +25789,7 @@
             </a:rPr>
             <a:t>40</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -25810,7 +25810,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1181715</xdr:colOff>
+      <xdr:colOff>1176713</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>373211</xdr:rowOff>
     </xdr:to>
@@ -25819,7 +25819,7 @@
         <xdr:cNvPr id="353" name="文字方塊 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D6AA95-515C-44BA-B7C8-56780C70AD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504429B0-D184-449C-9370-70BA85178297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25828,7 +25828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2141331" y="19814005"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25878,7 +25878,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25887,7 +25887,7 @@
             </a:rPr>
             <a:t>80</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -25902,13 +25902,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>43817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>176898</xdr:rowOff>
     </xdr:to>
@@ -25917,7 +25917,7 @@
         <xdr:cNvPr id="354" name="文字方塊 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BF790E-815F-4EEE-950D-469C0F3EFEF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F90128-23EA-4A87-B462-6C087D0ECAF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25925,8 +25925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="19617692"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="19617692"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25976,7 +25976,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -25985,7 +25985,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26000,7 +26000,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>50878</xdr:colOff>
+      <xdr:colOff>58572</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>44427</xdr:rowOff>
     </xdr:from>
@@ -26015,7 +26015,7 @@
         <xdr:cNvPr id="355" name="文字方塊 354">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CE2C02-FFB0-428A-80CD-083ADB891373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5492847-6AC8-493F-AB38-A909A7F6E8E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26023,8 +26023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193878" y="19618302"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:off x="1201572" y="19618302"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26074,7 +26074,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26083,7 +26083,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26104,7 +26104,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1335559</xdr:colOff>
+      <xdr:colOff>1327865</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>177508</xdr:rowOff>
     </xdr:to>
@@ -26113,7 +26113,7 @@
         <xdr:cNvPr id="356" name="文字方塊 355">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DECC1A4-4567-4DFD-A182-25A3A25ECE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA23AB8C-3ACE-4F26-9749-B18C3E635739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26122,7 +26122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2140646" y="19618302"/>
-          <a:ext cx="337913" cy="133081"/>
+          <a:ext cx="330219" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26172,7 +26172,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26181,7 +26181,7 @@
             </a:rPr>
             <a:t>180°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26211,7 +26211,7 @@
         <xdr:cNvPr id="357" name="直線接點 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A56D1A6-C532-44E3-A641-0E7E28EA771D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CFFFD3-7B61-436C-9287-332B331DC796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26266,7 +26266,7 @@
         <xdr:cNvPr id="358" name="直線接點 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAC12DE-D25D-4551-995F-699CEC03AB98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D205D7-FC1C-4E80-85F6-39DFC5594D3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26321,7 +26321,7 @@
         <xdr:cNvPr id="359" name="直線接點 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEE7FD1-65AD-4053-B6DF-B9A70232551D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C58791-FBDA-41A8-9A61-5E6B07255E83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26376,7 +26376,7 @@
         <xdr:cNvPr id="360" name="直線接點 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F36B36-9383-49B7-89FD-2AEDC45DF16F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A658E9-09B6-4A74-A99F-08F9694D3C1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26431,7 +26431,7 @@
         <xdr:cNvPr id="361" name="弧形 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98E7F79-4EEF-43AB-8D08-BF54F1BEDED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EE97EB-3336-4329-AA4C-52CC49C3A855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26497,7 +26497,7 @@
         <xdr:cNvPr id="362" name="弧形 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A089360-386A-4C45-8329-11678818A5F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18074107-31B3-47F5-8123-8479C5B2C836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26563,7 +26563,7 @@
         <xdr:cNvPr id="363" name="弧形 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88106584-99F9-4F3C-BF87-449DA46DF0FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA79360-138D-4F89-85B6-A97E1950B070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26614,13 +26614,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>32565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>165646</xdr:rowOff>
     </xdr:to>
@@ -26629,7 +26629,7 @@
         <xdr:cNvPr id="364" name="文字方塊 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86989EBE-988B-466B-9B6B-E66FCA27294C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BDD6A6-DF53-4566-85B8-356F2398F3CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26637,8 +26637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="20482740"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="20482740"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26688,7 +26688,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26697,7 +26697,7 @@
             </a:rPr>
             <a:t>50</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26712,13 +26712,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>126044</xdr:colOff>
+      <xdr:colOff>128545</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>152980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>309428</xdr:colOff>
+      <xdr:colOff>306927</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>286061</xdr:rowOff>
     </xdr:to>
@@ -26727,7 +26727,7 @@
         <xdr:cNvPr id="365" name="文字方塊 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B8993C-8B49-40C4-B8B7-142AD3B8F60D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A243F8D3-C278-40F5-8942-8B0FE7C4022A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26735,8 +26735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1269044" y="20603155"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1271545" y="20603155"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26786,7 +26786,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26795,7 +26795,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26810,13 +26810,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>603633</xdr:colOff>
+      <xdr:colOff>606134</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>273027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>787017</xdr:colOff>
+      <xdr:colOff>784516</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>406108</xdr:rowOff>
     </xdr:to>
@@ -26825,7 +26825,7 @@
         <xdr:cNvPr id="366" name="文字方塊 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8366DA5B-F2CF-4844-B4B8-96111812AE3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B037DC-2D0D-4C44-B0AD-28B7D9D854D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26833,8 +26833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1746633" y="20723202"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:off x="1749134" y="20723202"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26884,7 +26884,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26893,7 +26893,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -26914,7 +26914,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1181030</xdr:colOff>
+      <xdr:colOff>1176028</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>408328</xdr:rowOff>
     </xdr:to>
@@ -26923,7 +26923,7 @@
         <xdr:cNvPr id="367" name="文字方塊 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570EF019-227C-48B2-8177-29C00EF41309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5389A6-D294-4E5A-8A8D-F262FB07ED92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26932,7 +26932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2140646" y="20725422"/>
-          <a:ext cx="183384" cy="133081"/>
+          <a:ext cx="178382" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26982,7 +26982,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -26991,7 +26991,7 @@
             </a:rPr>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -27006,7 +27006,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142570</xdr:colOff>
+      <xdr:colOff>147763</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22512</xdr:rowOff>
     </xdr:from>
@@ -27021,7 +27021,7 @@
         <xdr:cNvPr id="368" name="文字方塊 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CBAE4-9B62-4E9F-99E0-C62B2C5F3CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615D0586-534C-4D81-BF91-159171447B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27029,8 +27029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285570" y="20472687"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1290763" y="20472687"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27080,7 +27080,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -27089,7 +27089,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -27104,7 +27104,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>139410</xdr:colOff>
+      <xdr:colOff>144603</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>285262</xdr:rowOff>
     </xdr:from>
@@ -27119,7 +27119,7 @@
         <xdr:cNvPr id="369" name="文字方塊 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF273094-ECEC-4BA0-B7EA-AFF70EB552F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87EC790-3D00-4A4C-A282-264FD51C62A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27127,8 +27127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1282410" y="20735437"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:off x="1287603" y="20735437"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27178,7 +27178,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -27187,7 +27187,7 @@
             </a:rPr>
             <a:t>45°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -27208,7 +27208,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1247027</xdr:colOff>
+      <xdr:colOff>1241834</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>165608</xdr:rowOff>
     </xdr:to>
@@ -27217,7 +27217,7 @@
         <xdr:cNvPr id="370" name="文字方塊 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64913EDF-59D5-4788-91E3-EB8E761127B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BF29B8-5C78-43A2-8D85-49C5C8942AD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27226,7 +27226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2143806" y="20482702"/>
-          <a:ext cx="246221" cy="133081"/>
+          <a:ext cx="241028" cy="133081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27276,7 +27276,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -27285,7 +27285,7 @@
             </a:rPr>
             <a:t>90°</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -28041,7 +28041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AF4667-DE9B-4A09-BD98-2887C9435A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC27B2D-F297-4C84-8221-5D20FB1471B0}">
   <dimension ref="A1:AP48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
